--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Sweater company" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>Quality Sweater Company</t>
   </si>
@@ -327,27 +327,145 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Demand</t>
-  </si>
-  <si>
     <t>Intercep(b):</t>
   </si>
   <si>
-    <t>Slope(m):</t>
-  </si>
-  <si>
-    <t>LINEAR:</t>
+    <t>La empresa quiere estimar la relación entre la demanda y el precio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The company wants to estimate the relationship between demand and price</t>
+  </si>
+  <si>
+    <t>¿Qué precio debería cobrar la empresa para maximizar las ganancias?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+What price should the company charge to maximize profits?</t>
+  </si>
+  <si>
+    <t>Power: y=ax^b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant a= </t>
+  </si>
+  <si>
+    <t>Exponent b=</t>
+  </si>
+  <si>
+    <t>Constnat(a):</t>
+  </si>
+  <si>
+    <t>Exponent(b):</t>
+  </si>
+  <si>
+    <t>Exponential: y=ae^(bx)</t>
+  </si>
+  <si>
+    <t>*una vez añadido la curva en gráfico, mostrar función:</t>
+  </si>
+  <si>
+    <t>Slope(m):
+(es la pendiente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Diseño: </t>
+  </si>
+  <si>
+    <t>Prediction based on models:</t>
+  </si>
+  <si>
+    <t>Linear (lineal)</t>
+  </si>
+  <si>
+    <t>Exponential
+(exponencial)</t>
+  </si>
+  <si>
+    <t>LINEAR: y= mx+b</t>
+  </si>
+  <si>
+    <t>Price (x)</t>
+  </si>
+  <si>
+    <t>Demand
+(palos de golf vendidos)</t>
+  </si>
+  <si>
+    <t>Demand
+(palos vendidos)</t>
+  </si>
+  <si>
+    <t>Power 
+(de potencia)</t>
+  </si>
+  <si>
+    <t>Absolute 
+percent error</t>
+  </si>
+  <si>
+    <t>Absolute percent 
+error (POWER)</t>
+  </si>
+  <si>
+    <t>Absolute percent 
+error (exponencial)</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        use the smallest error %</t>
+  </si>
+  <si>
+    <t>Model the business:</t>
+  </si>
+  <si>
+    <t>Unit cost:</t>
+  </si>
+  <si>
+    <t>per set of clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale price: </t>
+  </si>
+  <si>
+    <t>multiple of 10</t>
+  </si>
+  <si>
+    <t>from power model</t>
+  </si>
+  <si>
+    <t>Actual demand:</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+a)What price should the company charge to maximize profits?</t>
+  </si>
+  <si>
+    <t>a)Sell at a price of $530 for a profit of 1042$</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Demand (00s):
+aplica la funcion power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +536,44 @@
       <color rgb="FF1F1F1F"/>
       <name val="Var(--cds-font-family-source-sa"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +658,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -710,12 +876,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -785,12 +1128,61 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,12 +1247,100 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Énfasis5 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2325,7 +2805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2453,7 +2932,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7389685828169789E-2"/>
+          <c:y val="3.1011318527198673E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2498,7 +2984,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Demand</c:v>
+                  <c:v>Demand
+(palos de golf vendidos)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,8 +3063,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13805818022747157"/>
-                  <c:y val="-0.55303441236512108"/>
+                  <c:x val="-0.21529538167105947"/>
+                  <c:y val="-0.55407512988153151"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2614,34 +3101,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2651,8 +3113,58 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.5974846894138234E-2"/>
-                  <c:y val="-0.37619386118401865"/>
+                  <c:x val="-3.3446862663768243E-2"/>
+                  <c:y val="-0.52180341511980965"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15734587861096769"/>
+                  <c:y val="-0.53304338273197693"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3062,6 +3574,521 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'shop 19th Hole'!$G$38:$G$76</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'shop 19th Hole'!$H$38:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>144859.72842847556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269590.60184817808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377277.18719872413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470458.61526328744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551238.40185229108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>621369.53021456813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>682320.93416212313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>735329.86392835062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>781443.44106265297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>821551.86522268457</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>856415.12424477958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>886684.61116254725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>912920.72098907013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>935607.253438466</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>955163.26238462282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>971952.85243747453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>986293.31587235699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>998461.92082203622</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1008701.5979665397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1017225.7233983984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1024222.1565401531</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1029856.6614397548</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1034275.8155834542</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1037609.4911199291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1039972.9779989794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1041468.8061629091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1042188.3139489595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1042213.0017719698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1041615.7035724644</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1040461.6031350964</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1038809.1179690239</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1036710.669808225</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1034213.3577876764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1031359.5478624469</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1028187.3899667513</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>985104.42081539321</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>933219.50848926988</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>880917.95766693447</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>831338.85314930137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C40E-4382-9101-D12CD320EE9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1220901536"/>
+        <c:axId val="1220903200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1220901536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220903200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1220903200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220901536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3222,6 +4249,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="397">
   <cs:axisTitle>
@@ -5365,6 +6432,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5516,16 +7099,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>757237</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5539,6 +7122,90 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65767</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167821</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flecha arriba 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568167" y="7302953"/>
+          <a:ext cx="102054" cy="248558"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>758598</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>187552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>39234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5812,7 +7479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5825,11 +7492,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -6099,11 +7766,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
@@ -6227,7 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:O12"/>
     </sheetView>
   </sheetViews>
@@ -6242,14 +7909,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
@@ -6345,19 +8012,19 @@
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=MAX(B10-B9;0)</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="30" t="s">
@@ -6365,20 +8032,20 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="90" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="35">
@@ -6425,7 +8092,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=BUSCARV(B10;E4:F9;2;VERDADERO)*B10</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="14">
         <v>500</v>
       </c>
@@ -6459,7 +8126,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="61"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="14">
         <v>1000</v>
       </c>
@@ -6503,7 +8170,7 @@
         <f t="shared" ref="C17" ca="1" si="0">_xlfn.FORMULATEXT(B17)</f>
         <v>=MIN(B9;B10)*B4+B12*B5</v>
       </c>
-      <c r="E17" s="61"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="14">
         <v>1500</v>
       </c>
@@ -6536,7 +8203,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E18" s="61"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="14">
         <v>2000</v>
       </c>
@@ -6580,7 +8247,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=B17-B15</v>
       </c>
-      <c r="E19" s="61"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="14">
         <v>2500</v>
       </c>
@@ -6613,7 +8280,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="61"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="14">
         <v>3000</v>
       </c>
@@ -6646,7 +8313,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="61"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="14">
         <v>3500</v>
       </c>
@@ -6679,7 +8346,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="61"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="14">
         <v>4000</v>
       </c>
@@ -6712,7 +8379,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="E23" s="61"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="14">
         <v>4500</v>
       </c>
@@ -6792,19 +8459,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11">
       <c r="G2" s="34">
@@ -6831,7 +8498,7 @@
       <c r="B3" s="37">
         <v>3</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="100" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="14">
@@ -6863,7 +8530,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=100000*B3</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="14">
         <v>2</v>
       </c>
@@ -6881,7 +8548,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="F5" s="72"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="14">
         <v>3</v>
       </c>
@@ -6905,7 +8572,7 @@
       <c r="B6" s="37">
         <v>774.95107632093936</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="14">
         <v>4</v>
       </c>
@@ -6934,7 +8601,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=365*B6</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -6961,11 +8628,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1">
       <c r="A12" t="s">
@@ -7019,11 +8686,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1">
       <c r="A20" t="s">
@@ -7078,7 +8745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7089,11 +8756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
@@ -7406,183 +9073,2254 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13" ht="45.75" thickBot="1">
+      <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53">
+        <v>450</v>
+      </c>
+      <c r="C2" s="53">
+        <v>45</v>
+      </c>
+      <c r="J2" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A3" s="53">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53">
+        <v>300</v>
+      </c>
+      <c r="C3" s="53">
+        <v>103</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1">
+      <c r="A4" s="53">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53">
+        <v>440</v>
+      </c>
+      <c r="C4" s="53">
+        <v>49</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+    </row>
+    <row r="5" spans="1:13" s="84" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A5" s="83">
+        <v>4</v>
+      </c>
+      <c r="B5" s="83">
+        <v>360</v>
+      </c>
+      <c r="C5" s="83">
+        <v>86</v>
+      </c>
+      <c r="J5" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="119"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53">
+        <v>290</v>
+      </c>
+      <c r="C6" s="53">
+        <v>125</v>
+      </c>
+      <c r="G6" s="76"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="53">
+        <v>6</v>
+      </c>
+      <c r="B7" s="53">
+        <v>450</v>
+      </c>
+      <c r="C7" s="53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="53">
+        <v>340</v>
+      </c>
+      <c r="C8" s="53">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="53">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53">
+        <v>370</v>
+      </c>
+      <c r="C9" s="53">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="53">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53">
+        <v>500</v>
+      </c>
+      <c r="C10" s="53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="53">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>490</v>
+      </c>
+      <c r="C11" s="53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53">
+        <v>430</v>
+      </c>
+      <c r="C12" s="53">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53">
+        <v>390</v>
+      </c>
+      <c r="C13" s="53">
+        <v>68</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="120"/>
+      <c r="C15" s="125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="126"/>
+      <c r="E15" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="107"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="54">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54">
+      <c r="B16" s="121">
+        <v>211.31</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="128">
+        <v>5871064</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="57">
+        <v>466.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="122">
+        <v>-0.35460000000000003</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="130">
+        <v>-1.9079999999999999</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="64">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="F18" s="61"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A20" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="53">
         <v>450</v>
       </c>
-      <c r="C2" s="54">
+      <c r="B21" s="67">
+        <f>$B$17*A21+$B$16</f>
+        <v>51.739999999999981</v>
+      </c>
+      <c r="C21" s="67">
+        <f>$D$16*A21^$D$17</f>
+        <v>50.861286169919921</v>
+      </c>
+      <c r="D21" s="60">
+        <f>$F$16*EXP($F$17*A21)</f>
+        <v>49.169792250355329</v>
+      </c>
+      <c r="E21" s="53">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="54">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54">
+      <c r="F21" s="68">
+        <f>ABS(B21-E21)/E21</f>
+        <v>0.14977777777777734</v>
+      </c>
+      <c r="G21" s="68">
+        <f>ABS(C21-E21)/E21</f>
+        <v>0.13025080377599826</v>
+      </c>
+      <c r="H21" s="68">
+        <f>ABS(D21-E21)/E21</f>
+        <v>9.2662050007896193E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="53">
         <v>300</v>
       </c>
-      <c r="C3" s="54">
+      <c r="B22" s="67">
+        <f t="shared" ref="B22:B32" si="0">$B$17*A22+$B$16</f>
+        <v>104.92999999999999</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" ref="C22:C32" si="1">$D$16*A22^$D$17</f>
+        <v>110.2476803704582</v>
+      </c>
+      <c r="D22" s="60">
+        <f t="shared" ref="D22:D32" si="2">$F$16*EXP($F$17*A22)</f>
+        <v>104.09245101084399</v>
+      </c>
+      <c r="E22" s="53">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="54">
-        <v>3</v>
-      </c>
-      <c r="B4" s="54">
+      <c r="F22" s="68">
+        <f t="shared" ref="F22:F32" si="3">ABS(B22-E22)/E22</f>
+        <v>1.8737864077669832E-2</v>
+      </c>
+      <c r="G22" s="68">
+        <f t="shared" ref="G22:G32" si="4">ABS(C22-E22)/E22</f>
+        <v>7.0365828839399985E-2</v>
+      </c>
+      <c r="H22" s="68">
+        <f t="shared" ref="H22:H32" si="5">ABS(D22-E22)/E22</f>
+        <v>1.0606320493630948E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="53">
         <v>440</v>
       </c>
-      <c r="C4" s="54">
+      <c r="B23" s="67">
+        <f t="shared" si="0"/>
+        <v>55.286000000000001</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="1"/>
+        <v>53.089557787712614</v>
+      </c>
+      <c r="D23" s="60">
+        <f t="shared" si="2"/>
+        <v>51.69078140761237</v>
+      </c>
+      <c r="E23" s="53">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="54">
-        <v>4</v>
-      </c>
-      <c r="B5" s="54">
+      <c r="F23" s="68">
+        <f t="shared" si="3"/>
+        <v>0.12828571428571431</v>
+      </c>
+      <c r="G23" s="68">
+        <f t="shared" si="4"/>
+        <v>8.3460363014543154E-2</v>
+      </c>
+      <c r="H23" s="68">
+        <f t="shared" si="5"/>
+        <v>5.4913906277803466E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="53">
         <v>360</v>
       </c>
-      <c r="C5" s="54">
+      <c r="B24" s="67">
+        <f t="shared" si="0"/>
+        <v>83.653999999999996</v>
+      </c>
+      <c r="C24" s="67">
+        <f t="shared" si="1"/>
+        <v>77.85592038588905</v>
+      </c>
+      <c r="D24" s="60">
+        <f t="shared" si="2"/>
+        <v>77.113584344252331</v>
+      </c>
+      <c r="E24" s="53">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="54">
-        <v>5</v>
-      </c>
-      <c r="B6" s="54">
+      <c r="F24" s="68">
+        <f t="shared" si="3"/>
+        <v>2.7279069767441901E-2</v>
+      </c>
+      <c r="G24" s="68">
+        <f t="shared" si="4"/>
+        <v>9.4698600164080812E-2</v>
+      </c>
+      <c r="H24" s="68">
+        <f t="shared" si="5"/>
+        <v>0.10333041460171709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="53">
         <v>290</v>
       </c>
-      <c r="C6" s="54">
+      <c r="B25" s="67">
+        <f t="shared" si="0"/>
+        <v>108.476</v>
+      </c>
+      <c r="C25" s="67">
+        <f t="shared" si="1"/>
+        <v>117.61465381582187</v>
+      </c>
+      <c r="D25" s="60">
+        <f t="shared" si="2"/>
+        <v>109.42938509863754</v>
+      </c>
+      <c r="E25" s="53">
         <v>125</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="54">
-        <v>6</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="F25" s="68">
+        <f t="shared" si="3"/>
+        <v>0.132192</v>
+      </c>
+      <c r="G25" s="68">
+        <f t="shared" si="4"/>
+        <v>5.9082769473425063E-2</v>
+      </c>
+      <c r="H25" s="68">
+        <f t="shared" si="5"/>
+        <v>0.12456491921089968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="53">
         <v>450</v>
       </c>
-      <c r="C7" s="54">
+      <c r="B26" s="67">
+        <f t="shared" si="0"/>
+        <v>51.739999999999981</v>
+      </c>
+      <c r="C26" s="67">
+        <f t="shared" si="1"/>
+        <v>50.861286169919921</v>
+      </c>
+      <c r="D26" s="60">
+        <f t="shared" si="2"/>
+        <v>49.169792250355329</v>
+      </c>
+      <c r="E26" s="53">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="54">
-        <v>7</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="F26" s="68">
+        <f t="shared" si="3"/>
+        <v>5.0000000000003713E-3</v>
+      </c>
+      <c r="G26" s="68">
+        <f t="shared" si="4"/>
+        <v>2.1898342886155355E-2</v>
+      </c>
+      <c r="H26" s="68">
+        <f t="shared" si="5"/>
+        <v>5.4427072108551369E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="53">
         <v>340</v>
       </c>
-      <c r="C8" s="54">
+      <c r="B27" s="67">
+        <f t="shared" si="0"/>
+        <v>90.745999999999995</v>
+      </c>
+      <c r="C27" s="67">
+        <f t="shared" si="1"/>
+        <v>86.827049006961417</v>
+      </c>
+      <c r="D27" s="60">
+        <f t="shared" si="2"/>
+        <v>85.223690805841244</v>
+      </c>
+      <c r="E27" s="53">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="54">
-        <v>8</v>
-      </c>
-      <c r="B9" s="54">
+      <c r="F27" s="68">
+        <f t="shared" si="3"/>
+        <v>4.3057471264367757E-2</v>
+      </c>
+      <c r="G27" s="68">
+        <f t="shared" si="4"/>
+        <v>1.9879424487193459E-3</v>
+      </c>
+      <c r="H27" s="68">
+        <f t="shared" si="5"/>
+        <v>2.0417347059296046E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="53">
         <v>370</v>
       </c>
-      <c r="C9" s="54">
+      <c r="B28" s="67">
+        <f t="shared" si="0"/>
+        <v>80.108000000000004</v>
+      </c>
+      <c r="C28" s="67">
+        <f t="shared" si="1"/>
+        <v>73.890384263545585</v>
+      </c>
+      <c r="D28" s="60">
+        <f t="shared" si="2"/>
+        <v>73.352710456970414</v>
+      </c>
+      <c r="E28" s="53">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="54">
-        <v>9</v>
-      </c>
-      <c r="B10" s="54">
+      <c r="F28" s="68">
+        <f t="shared" si="3"/>
+        <v>0.17805882352941182</v>
+      </c>
+      <c r="G28" s="68">
+        <f t="shared" si="4"/>
+        <v>8.6623297993317416E-2</v>
+      </c>
+      <c r="H28" s="68">
+        <f t="shared" si="5"/>
+        <v>7.8716330249564911E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="53">
         <v>500</v>
       </c>
-      <c r="C10" s="54">
+      <c r="B29" s="67">
+        <f t="shared" si="0"/>
+        <v>34.009999999999991</v>
+      </c>
+      <c r="C29" s="67">
+        <f t="shared" si="1"/>
+        <v>41.59891911995917</v>
+      </c>
+      <c r="D29" s="60">
+        <f t="shared" si="2"/>
+        <v>38.293472708035026</v>
+      </c>
+      <c r="E29" s="53">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="54">
-        <v>10</v>
-      </c>
-      <c r="B11" s="54">
+      <c r="F29" s="68">
+        <f t="shared" si="3"/>
+        <v>0.24422222222222242</v>
+      </c>
+      <c r="G29" s="68">
+        <f t="shared" si="4"/>
+        <v>7.5579575112018446E-2</v>
+      </c>
+      <c r="H29" s="68">
+        <f t="shared" si="5"/>
+        <v>0.14903393982144386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="53">
         <v>490</v>
       </c>
-      <c r="C11" s="54">
+      <c r="B30" s="67">
+        <f t="shared" si="0"/>
+        <v>37.555999999999983</v>
+      </c>
+      <c r="C30" s="67">
+        <f t="shared" si="1"/>
+        <v>43.233728796663705</v>
+      </c>
+      <c r="D30" s="60">
+        <f t="shared" si="2"/>
+        <v>40.256821037821332</v>
+      </c>
+      <c r="E30" s="53">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="54">
-        <v>11</v>
-      </c>
-      <c r="B12" s="54">
+      <c r="F30" s="68">
+        <f t="shared" si="3"/>
+        <v>0.14645454545454584</v>
+      </c>
+      <c r="G30" s="68">
+        <f t="shared" si="4"/>
+        <v>1.7415254621279432E-2</v>
+      </c>
+      <c r="H30" s="68">
+        <f t="shared" si="5"/>
+        <v>8.5072249140424272E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="53">
         <v>430</v>
       </c>
-      <c r="C12" s="54">
+      <c r="B31" s="67">
+        <f t="shared" si="0"/>
+        <v>58.831999999999994</v>
+      </c>
+      <c r="C31" s="67">
+        <f t="shared" si="1"/>
+        <v>55.470106712335337</v>
+      </c>
+      <c r="D31" s="60">
+        <f t="shared" si="2"/>
+        <v>54.341024442914069</v>
+      </c>
+      <c r="E31" s="53">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="54">
-        <v>12</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="F31" s="68">
+        <f t="shared" si="3"/>
+        <v>1.4344827586206787E-2</v>
+      </c>
+      <c r="G31" s="68">
+        <f t="shared" si="4"/>
+        <v>4.3618849787321778E-2</v>
+      </c>
+      <c r="H31" s="68">
+        <f t="shared" si="5"/>
+        <v>6.3085785466998806E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="53">
         <v>390</v>
       </c>
-      <c r="C13" s="54">
+      <c r="B32" s="67">
+        <f t="shared" si="0"/>
+        <v>73.015999999999991</v>
+      </c>
+      <c r="C32" s="67">
+        <f t="shared" si="1"/>
+        <v>66.829089531318985</v>
+      </c>
+      <c r="D32" s="60">
+        <f t="shared" si="2"/>
+        <v>66.372277135824447</v>
+      </c>
+      <c r="E32" s="53">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="55">
-        <v>211.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17">
-        <v>0.35460000000000003</v>
+      <c r="F32" s="68">
+        <f t="shared" si="3"/>
+        <v>7.3764705882352816E-2</v>
+      </c>
+      <c r="G32" s="72">
+        <f t="shared" si="4"/>
+        <v>1.7219271598250221E-2</v>
+      </c>
+      <c r="H32" s="68">
+        <f t="shared" si="5"/>
+        <v>2.393710094375813E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="E33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="70">
+        <f>AVERAGE(F21:F32)</f>
+        <v>9.6764585153975916E-2</v>
+      </c>
+      <c r="G33" s="73">
+        <f>AVERAGE(G21:G32)</f>
+        <v>5.8516741642875771E-2</v>
+      </c>
+      <c r="H33" s="71">
+        <f>AVERAGE(H21:H32)</f>
+        <v>7.17306196151654E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="2">
+        <v>250</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="2">
+        <v>700</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="78">
+        <f>B43</f>
+        <v>985104.42081539321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30">
+      <c r="A38" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="4">
+        <f>D16*B37^D17</f>
+        <v>21.891209351453181</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B38)</f>
+        <v>=D16*B37^D17</v>
+      </c>
+      <c r="G38" s="79">
+        <v>260</v>
+      </c>
+      <c r="H38" s="79">
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
+        <v>144859.72842847556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B38*100</f>
+        <v>2189.1209351453181</v>
+      </c>
+      <c r="D39" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B39)</f>
+        <v>=B38*100</v>
+      </c>
+      <c r="G39" s="79">
+        <v>270</v>
+      </c>
+      <c r="H39" s="79">
+        <v>269590.60184817808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="G40" s="79">
+        <v>280</v>
+      </c>
+      <c r="H40" s="79">
+        <v>377277.18719872413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2">
+        <f>B39*B36</f>
+        <v>547280.23378632951</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" ref="D41:D43" ca="1" si="6">_xlfn.FORMULATEXT(B41)</f>
+        <v>=B39*B36</v>
+      </c>
+      <c r="G41" s="79">
+        <v>290</v>
+      </c>
+      <c r="H41" s="79">
+        <v>470458.61526328744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="2">
+        <f>B39*B37</f>
+        <v>1532384.6546017227</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=B39*B37</v>
+      </c>
+      <c r="G42" s="79">
+        <v>300</v>
+      </c>
+      <c r="H42" s="79">
+        <v>551238.40185229108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <f>B42-B41</f>
+        <v>985104.42081539321</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=B42-B41</v>
+      </c>
+      <c r="G43" s="79">
+        <v>310</v>
+      </c>
+      <c r="H43" s="79">
+        <v>621369.53021456813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="G44" s="79">
+        <v>320</v>
+      </c>
+      <c r="H44" s="79">
+        <v>682320.93416212313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="G45" s="79">
+        <v>330</v>
+      </c>
+      <c r="H45" s="79">
+        <v>735329.86392835062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="G46" s="79">
+        <v>340</v>
+      </c>
+      <c r="H46" s="79">
+        <v>781443.44106265297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="G47" s="79">
+        <v>350</v>
+      </c>
+      <c r="H47" s="79">
+        <v>821551.86522268457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="G48" s="79">
+        <v>360</v>
+      </c>
+      <c r="H48" s="79">
+        <v>856415.12424477958</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="79">
+        <v>370</v>
+      </c>
+      <c r="H49" s="79">
+        <v>886684.61116254725</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" s="79">
+        <v>380</v>
+      </c>
+      <c r="H50" s="79">
+        <v>912920.72098907013</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" s="79">
+        <v>390</v>
+      </c>
+      <c r="H51" s="79">
+        <v>935607.253438466</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" s="79">
+        <v>400</v>
+      </c>
+      <c r="H52" s="79">
+        <v>955163.26238462282</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" s="79">
+        <v>410</v>
+      </c>
+      <c r="H53" s="79">
+        <v>971952.85243747453</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" s="79">
+        <v>420</v>
+      </c>
+      <c r="H54" s="79">
+        <v>986293.31587235699</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" s="79">
+        <v>430</v>
+      </c>
+      <c r="H55" s="79">
+        <v>998461.92082203622</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" s="79">
+        <v>440</v>
+      </c>
+      <c r="H56" s="79">
+        <v>1008701.5979665397</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
+      <c r="G57" s="79">
+        <v>450</v>
+      </c>
+      <c r="H57" s="79">
+        <v>1017225.7233983984</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" s="79">
+        <v>460</v>
+      </c>
+      <c r="H58" s="79">
+        <v>1024222.1565401531</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" s="79">
+        <v>470</v>
+      </c>
+      <c r="H59" s="79">
+        <v>1029856.6614397548</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" s="79">
+        <v>480</v>
+      </c>
+      <c r="H60" s="79">
+        <v>1034275.8155834542</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" s="79">
+        <v>490</v>
+      </c>
+      <c r="H61" s="79">
+        <v>1037609.4911199291</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" s="79">
+        <v>500</v>
+      </c>
+      <c r="H62" s="79">
+        <v>1039972.9779989794</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" s="79">
+        <v>510</v>
+      </c>
+      <c r="H63" s="79">
+        <v>1041468.8061629091</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" s="79">
+        <v>520</v>
+      </c>
+      <c r="H64" s="79">
+        <v>1042188.3139489595</v>
+      </c>
+      <c r="J64" s="75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" ht="30">
+      <c r="G65" s="80">
+        <v>530</v>
+      </c>
+      <c r="H65" s="80">
+        <v>1042213.0017719698</v>
+      </c>
+      <c r="J65" s="74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" s="79">
+        <v>540</v>
+      </c>
+      <c r="H66" s="79">
+        <v>1041615.7035724644</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" s="79">
+        <v>550</v>
+      </c>
+      <c r="H67" s="79">
+        <v>1040461.6031350964</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" ht="13.5" customHeight="1">
+      <c r="G68" s="79">
+        <v>560</v>
+      </c>
+      <c r="H68" s="79">
+        <v>1038809.1179690239</v>
+      </c>
+      <c r="J68" s="54"/>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" s="79">
+        <v>570</v>
+      </c>
+      <c r="H69" s="79">
+        <v>1036710.669808225</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" s="79">
+        <v>580</v>
+      </c>
+      <c r="H70" s="79">
+        <v>1034213.3577876764</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" s="79">
+        <v>590</v>
+      </c>
+      <c r="H71" s="79">
+        <v>1031359.5478624469</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" s="79">
+        <v>600</v>
+      </c>
+      <c r="H72" s="79">
+        <v>1028187.3899667513</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" s="81">
+        <v>700</v>
+      </c>
+      <c r="H73" s="81">
+        <v>985104.42081539321</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" s="79">
+        <v>800</v>
+      </c>
+      <c r="H74" s="81">
+        <v>933219.50848926988</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" s="81">
+        <v>900</v>
+      </c>
+      <c r="H75" s="81">
+        <v>880917.95766693447</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" s="81">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="81">
+        <v>831338.85314930137</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="6:14">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="6:14">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="6:14">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="6:14">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="6:14">
+      <c r="F85" s="77"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="77"/>
+      <c r="N85" s="77"/>
+    </row>
+    <row r="86" spans="6:14">
+      <c r="F86" s="77"/>
+      <c r="G86" s="82">
+        <f>B42-B41</f>
+        <v>985104.42081539321</v>
+      </c>
+      <c r="H86" s="77">
+        <v>250</v>
+      </c>
+      <c r="I86" s="77">
+        <v>300</v>
+      </c>
+      <c r="J86" s="77">
+        <v>350</v>
+      </c>
+      <c r="K86" s="77">
+        <v>400</v>
+      </c>
+      <c r="L86" s="77">
+        <v>450</v>
+      </c>
+      <c r="M86" s="77">
+        <v>500</v>
+      </c>
+      <c r="N86" s="77">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87" spans="6:14">
+      <c r="F87" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="79">
+        <v>260</v>
+      </c>
+      <c r="H87" s="81">
+        <f t="dataTable" ref="H87:N125" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
+        <v>144859.72842847556</v>
+      </c>
+      <c r="I87" s="81">
+        <v>-579438.91371390224</v>
+      </c>
+      <c r="J87" s="81">
+        <v>-1303737.5558562791</v>
+      </c>
+      <c r="K87" s="81">
+        <v>-2028036.1979986569</v>
+      </c>
+      <c r="L87" s="81">
+        <v>-2752334.8401410338</v>
+      </c>
+      <c r="M87" s="81">
+        <v>-3476633.4822834115</v>
+      </c>
+      <c r="N87" s="81">
+        <v>-4200932.1244257884</v>
+      </c>
+    </row>
+    <row r="88" spans="6:14">
+      <c r="F88" s="77"/>
+      <c r="G88" s="79">
+        <v>270</v>
+      </c>
+      <c r="H88" s="81">
+        <v>269590.60184817808</v>
+      </c>
+      <c r="I88" s="81">
+        <v>-404385.90277226688</v>
+      </c>
+      <c r="J88" s="81">
+        <v>-1078362.4073927123</v>
+      </c>
+      <c r="K88" s="81">
+        <v>-1752338.9120131573</v>
+      </c>
+      <c r="L88" s="81">
+        <v>-2426315.4166336022</v>
+      </c>
+      <c r="M88" s="81">
+        <v>-3100291.9212540481</v>
+      </c>
+      <c r="N88" s="81">
+        <v>-3774268.4258744931</v>
+      </c>
+    </row>
+    <row r="89" spans="6:14">
+      <c r="F89" s="77"/>
+      <c r="G89" s="79">
+        <v>280</v>
+      </c>
+      <c r="H89" s="81">
+        <v>377277.18719872413</v>
+      </c>
+      <c r="I89" s="81">
+        <v>-251518.12479914958</v>
+      </c>
+      <c r="J89" s="81">
+        <v>-880313.43679702282</v>
+      </c>
+      <c r="K89" s="81">
+        <v>-1509108.7487948965</v>
+      </c>
+      <c r="L89" s="81">
+        <v>-2137904.0607927702</v>
+      </c>
+      <c r="M89" s="81">
+        <v>-2766699.3727906439</v>
+      </c>
+      <c r="N89" s="81">
+        <v>-3395494.6847885177</v>
+      </c>
+    </row>
+    <row r="90" spans="6:14">
+      <c r="F90" s="77"/>
+      <c r="G90" s="79">
+        <v>290</v>
+      </c>
+      <c r="H90" s="81">
+        <v>470458.61526328744</v>
+      </c>
+      <c r="I90" s="81">
+        <v>-117614.65381582174</v>
+      </c>
+      <c r="J90" s="81">
+        <v>-705687.9228949314</v>
+      </c>
+      <c r="K90" s="81">
+        <v>-1293761.1919740411</v>
+      </c>
+      <c r="L90" s="81">
+        <v>-1881834.4610531498</v>
+      </c>
+      <c r="M90" s="81">
+        <v>-2469907.7301322594</v>
+      </c>
+      <c r="N90" s="81">
+        <v>-3057980.9992113691</v>
+      </c>
+    </row>
+    <row r="91" spans="6:14">
+      <c r="F91" s="77"/>
+      <c r="G91" s="79">
+        <v>300</v>
+      </c>
+      <c r="H91" s="81">
+        <v>551238.40185229108</v>
+      </c>
+      <c r="I91" s="81">
+        <v>0</v>
+      </c>
+      <c r="J91" s="81">
+        <v>-551238.40185229108</v>
+      </c>
+      <c r="K91" s="81">
+        <v>-1102476.8037045817</v>
+      </c>
+      <c r="L91" s="81">
+        <v>-1653715.2055568728</v>
+      </c>
+      <c r="M91" s="81">
+        <v>-2204953.6074091638</v>
+      </c>
+      <c r="N91" s="81">
+        <v>-2756192.0092614549</v>
+      </c>
+    </row>
+    <row r="92" spans="6:14">
+      <c r="F92" s="77"/>
+      <c r="G92" s="79">
+        <v>310</v>
+      </c>
+      <c r="H92" s="81">
+        <v>621369.53021456813</v>
+      </c>
+      <c r="I92" s="81">
+        <v>103561.58836909477</v>
+      </c>
+      <c r="J92" s="81">
+        <v>-414246.3534763786</v>
+      </c>
+      <c r="K92" s="81">
+        <v>-932054.2953218515</v>
+      </c>
+      <c r="L92" s="81">
+        <v>-1449862.2371673249</v>
+      </c>
+      <c r="M92" s="81">
+        <v>-1967670.1790127978</v>
+      </c>
+      <c r="N92" s="81">
+        <v>-2485478.1208582716</v>
+      </c>
+    </row>
+    <row r="93" spans="6:14">
+      <c r="F93" s="77"/>
+      <c r="G93" s="79">
+        <v>320</v>
+      </c>
+      <c r="H93" s="81">
+        <v>682320.93416212313</v>
+      </c>
+      <c r="I93" s="81">
+        <v>194948.83833203511</v>
+      </c>
+      <c r="J93" s="81">
+        <v>-292423.2574980529</v>
+      </c>
+      <c r="K93" s="81">
+        <v>-779795.35332814092</v>
+      </c>
+      <c r="L93" s="81">
+        <v>-1267167.4491582289</v>
+      </c>
+      <c r="M93" s="81">
+        <v>-1754539.5449883174</v>
+      </c>
+      <c r="N93" s="81">
+        <v>-2241911.640818405</v>
+      </c>
+    </row>
+    <row r="94" spans="6:14">
+      <c r="F94" s="77"/>
+      <c r="G94" s="79">
+        <v>330</v>
+      </c>
+      <c r="H94" s="81">
+        <v>735329.86392835062</v>
+      </c>
+      <c r="I94" s="81">
+        <v>275748.69897313137</v>
+      </c>
+      <c r="J94" s="81">
+        <v>-183832.46598208742</v>
+      </c>
+      <c r="K94" s="81">
+        <v>-643413.63093730668</v>
+      </c>
+      <c r="L94" s="81">
+        <v>-1102994.7958925259</v>
+      </c>
+      <c r="M94" s="81">
+        <v>-1562575.9608477447</v>
+      </c>
+      <c r="N94" s="81">
+        <v>-2022157.125802964</v>
+      </c>
+    </row>
+    <row r="95" spans="6:14">
+      <c r="F95" s="77"/>
+      <c r="G95" s="79">
+        <v>340</v>
+      </c>
+      <c r="H95" s="81">
+        <v>781443.44106265297</v>
+      </c>
+      <c r="I95" s="81">
+        <v>347308.19602784561</v>
+      </c>
+      <c r="J95" s="81">
+        <v>-86827.049006961286</v>
+      </c>
+      <c r="K95" s="81">
+        <v>-520962.29404176865</v>
+      </c>
+      <c r="L95" s="81">
+        <v>-955097.53907657554</v>
+      </c>
+      <c r="M95" s="81">
+        <v>-1389232.7841113824</v>
+      </c>
+      <c r="N95" s="81">
+        <v>-1823368.0291461898</v>
+      </c>
+    </row>
+    <row r="96" spans="6:14">
+      <c r="F96" s="77"/>
+      <c r="G96" s="79">
+        <v>350</v>
+      </c>
+      <c r="H96" s="81">
+        <v>821551.86522268457</v>
+      </c>
+      <c r="I96" s="81">
+        <v>410775.93261134205</v>
+      </c>
+      <c r="J96" s="81">
+        <v>0</v>
+      </c>
+      <c r="K96" s="81">
+        <v>-410775.93261134205</v>
+      </c>
+      <c r="L96" s="81">
+        <v>-821551.86522268457</v>
+      </c>
+      <c r="M96" s="81">
+        <v>-1232327.7978340266</v>
+      </c>
+      <c r="N96" s="81">
+        <v>-1643103.7304453691</v>
+      </c>
+    </row>
+    <row r="97" spans="6:14">
+      <c r="F97" s="77"/>
+      <c r="G97" s="79">
+        <v>360</v>
+      </c>
+      <c r="H97" s="81">
+        <v>856415.12424477958</v>
+      </c>
+      <c r="I97" s="81">
+        <v>467135.52231533453</v>
+      </c>
+      <c r="J97" s="81">
+        <v>77855.920385889243</v>
+      </c>
+      <c r="K97" s="81">
+        <v>-311423.68154355604</v>
+      </c>
+      <c r="L97" s="81">
+        <v>-700703.28347300133</v>
+      </c>
+      <c r="M97" s="81">
+        <v>-1089982.8854024466</v>
+      </c>
+      <c r="N97" s="81">
+        <v>-1479262.4873318919</v>
+      </c>
+    </row>
+    <row r="98" spans="6:14">
+      <c r="F98" s="77"/>
+      <c r="G98" s="79">
+        <v>370</v>
+      </c>
+      <c r="H98" s="81">
+        <v>886684.61116254725</v>
+      </c>
+      <c r="I98" s="81">
+        <v>517232.68984481925</v>
+      </c>
+      <c r="J98" s="81">
+        <v>147780.76852709148</v>
+      </c>
+      <c r="K98" s="81">
+        <v>-221671.15279063676</v>
+      </c>
+      <c r="L98" s="81">
+        <v>-591123.07410836453</v>
+      </c>
+      <c r="M98" s="81">
+        <v>-960574.9954260923</v>
+      </c>
+      <c r="N98" s="81">
+        <v>-1330026.9167438205</v>
+      </c>
+    </row>
+    <row r="99" spans="6:14">
+      <c r="F99" s="77"/>
+      <c r="G99" s="79">
+        <v>380</v>
+      </c>
+      <c r="H99" s="81">
+        <v>912920.72098907013</v>
+      </c>
+      <c r="I99" s="81">
+        <v>561797.36676250491</v>
+      </c>
+      <c r="J99" s="81">
+        <v>210674.01253593946</v>
+      </c>
+      <c r="K99" s="81">
+        <v>-140449.341690626</v>
+      </c>
+      <c r="L99" s="81">
+        <v>-491572.69591719145</v>
+      </c>
+      <c r="M99" s="81">
+        <v>-842696.05014375644</v>
+      </c>
+      <c r="N99" s="81">
+        <v>-1193819.4043703219</v>
+      </c>
+    </row>
+    <row r="100" spans="6:14">
+      <c r="F100" s="77"/>
+      <c r="G100" s="79">
+        <v>390</v>
+      </c>
+      <c r="H100" s="81">
+        <v>935607.253438466</v>
+      </c>
+      <c r="I100" s="81">
+        <v>601461.80578187108</v>
+      </c>
+      <c r="J100" s="81">
+        <v>267316.35812527593</v>
+      </c>
+      <c r="K100" s="81">
+        <v>-66829.08953131875</v>
+      </c>
+      <c r="L100" s="81">
+        <v>-400974.5371879139</v>
+      </c>
+      <c r="M100" s="81">
+        <v>-735119.98484450858</v>
+      </c>
+      <c r="N100" s="81">
+        <v>-1069265.4325011037</v>
+      </c>
+    </row>
+    <row r="101" spans="6:14">
+      <c r="F101" s="77"/>
+      <c r="G101" s="79">
+        <v>400</v>
+      </c>
+      <c r="H101" s="81">
+        <v>955163.26238462282</v>
+      </c>
+      <c r="I101" s="81">
+        <v>636775.50825641514</v>
+      </c>
+      <c r="J101" s="81">
+        <v>318387.75412820745</v>
+      </c>
+      <c r="K101" s="81">
+        <v>0</v>
+      </c>
+      <c r="L101" s="81">
+        <v>-318387.75412820745</v>
+      </c>
+      <c r="M101" s="81">
+        <v>-636775.50825641491</v>
+      </c>
+      <c r="N101" s="81">
+        <v>-955163.26238462236</v>
+      </c>
+    </row>
+    <row r="102" spans="6:14">
+      <c r="F102" s="77"/>
+      <c r="G102" s="79">
+        <v>410</v>
+      </c>
+      <c r="H102" s="81">
+        <v>971952.85243747453</v>
+      </c>
+      <c r="I102" s="81">
+        <v>668217.58605076349</v>
+      </c>
+      <c r="J102" s="81">
+        <v>364482.31966405269</v>
+      </c>
+      <c r="K102" s="81">
+        <v>60747.053277342115</v>
+      </c>
+      <c r="L102" s="81">
+        <v>-242988.21310936892</v>
+      </c>
+      <c r="M102" s="81">
+        <v>-546723.4794960795</v>
+      </c>
+      <c r="N102" s="81">
+        <v>-850458.74588279054</v>
+      </c>
+    </row>
+    <row r="103" spans="6:14">
+      <c r="F103" s="77"/>
+      <c r="G103" s="79">
+        <v>420</v>
+      </c>
+      <c r="H103" s="81">
+        <v>986293.31587235699</v>
+      </c>
+      <c r="I103" s="81">
+        <v>696207.04649813427</v>
+      </c>
+      <c r="J103" s="81">
+        <v>406120.77712391177</v>
+      </c>
+      <c r="K103" s="81">
+        <v>116034.50774968928</v>
+      </c>
+      <c r="L103" s="81">
+        <v>-174051.76162453368</v>
+      </c>
+      <c r="M103" s="81">
+        <v>-464138.03099875618</v>
+      </c>
+      <c r="N103" s="81">
+        <v>-754224.30037297867</v>
+      </c>
+    </row>
+    <row r="104" spans="6:14">
+      <c r="F104" s="77"/>
+      <c r="G104" s="79">
+        <v>430</v>
+      </c>
+      <c r="H104" s="81">
+        <v>998461.92082203622</v>
+      </c>
+      <c r="I104" s="81">
+        <v>721111.38726035948</v>
+      </c>
+      <c r="J104" s="81">
+        <v>443760.85369868297</v>
+      </c>
+      <c r="K104" s="81">
+        <v>166410.32013700623</v>
+      </c>
+      <c r="L104" s="81">
+        <v>-110940.21342467051</v>
+      </c>
+      <c r="M104" s="81">
+        <v>-388290.74698634725</v>
+      </c>
+      <c r="N104" s="81">
+        <v>-665641.28054802399</v>
+      </c>
+    </row>
+    <row r="105" spans="6:14">
+      <c r="F105" s="77"/>
+      <c r="G105" s="79">
+        <v>440</v>
+      </c>
+      <c r="H105" s="81">
+        <v>1008701.5979665397</v>
+      </c>
+      <c r="I105" s="81">
+        <v>743253.80902797659</v>
+      </c>
+      <c r="J105" s="81">
+        <v>477806.02008941351</v>
+      </c>
+      <c r="K105" s="81">
+        <v>212358.23115085065</v>
+      </c>
+      <c r="L105" s="81">
+        <v>-53089.557787712663</v>
+      </c>
+      <c r="M105" s="81">
+        <v>-318537.34672627551</v>
+      </c>
+      <c r="N105" s="81">
+        <v>-583985.13566483883</v>
+      </c>
+    </row>
+    <row r="106" spans="6:14">
+      <c r="F106" s="77"/>
+      <c r="G106" s="79">
+        <v>450</v>
+      </c>
+      <c r="H106" s="81">
+        <v>1017225.7233983984</v>
+      </c>
+      <c r="I106" s="81">
+        <v>762919.29254879872</v>
+      </c>
+      <c r="J106" s="81">
+        <v>508612.86169919907</v>
+      </c>
+      <c r="K106" s="81">
+        <v>254306.43084959942</v>
+      </c>
+      <c r="L106" s="81">
+        <v>0</v>
+      </c>
+      <c r="M106" s="81">
+        <v>-254306.43084959965</v>
+      </c>
+      <c r="N106" s="81">
+        <v>-508612.8616991993</v>
+      </c>
+    </row>
+    <row r="107" spans="6:14">
+      <c r="F107" s="77"/>
+      <c r="G107" s="79">
+        <v>460</v>
+      </c>
+      <c r="H107" s="81">
+        <v>1024222.1565401531</v>
+      </c>
+      <c r="I107" s="81">
+        <v>780359.73831630708</v>
+      </c>
+      <c r="J107" s="81">
+        <v>536497.3200924613</v>
+      </c>
+      <c r="K107" s="81">
+        <v>292634.9018686153</v>
+      </c>
+      <c r="L107" s="81">
+        <v>48772.483644769527</v>
+      </c>
+      <c r="M107" s="81">
+        <v>-195089.93457907671</v>
+      </c>
+      <c r="N107" s="81">
+        <v>-438952.35280292248</v>
+      </c>
+    </row>
+    <row r="108" spans="6:14">
+      <c r="F108" s="77"/>
+      <c r="G108" s="79">
+        <v>470</v>
+      </c>
+      <c r="H108" s="81">
+        <v>1029856.6614397548</v>
+      </c>
+      <c r="I108" s="81">
+        <v>795798.32929435605</v>
+      </c>
+      <c r="J108" s="81">
+        <v>561739.9971489571</v>
+      </c>
+      <c r="K108" s="81">
+        <v>327681.66500355839</v>
+      </c>
+      <c r="L108" s="81">
+        <v>93623.332858159672</v>
+      </c>
+      <c r="M108" s="81">
+        <v>-140434.99928723928</v>
+      </c>
+      <c r="N108" s="81">
+        <v>-374493.33143263776</v>
+      </c>
+    </row>
+    <row r="109" spans="6:14">
+      <c r="F109" s="77"/>
+      <c r="G109" s="79">
+        <v>480</v>
+      </c>
+      <c r="H109" s="81">
+        <v>1034275.8155834542</v>
+      </c>
+      <c r="I109" s="81">
+        <v>809433.24697835557</v>
+      </c>
+      <c r="J109" s="81">
+        <v>584590.67837325693</v>
+      </c>
+      <c r="K109" s="81">
+        <v>359748.10976815806</v>
+      </c>
+      <c r="L109" s="81">
+        <v>134905.54116305942</v>
+      </c>
+      <c r="M109" s="81">
+        <v>-89937.027442039456</v>
+      </c>
+      <c r="N109" s="81">
+        <v>-314779.59604713786</v>
+      </c>
+    </row>
+    <row r="110" spans="6:14">
+      <c r="F110" s="77"/>
+      <c r="G110" s="79">
+        <v>490</v>
+      </c>
+      <c r="H110" s="81">
+        <v>1037609.4911199291</v>
+      </c>
+      <c r="I110" s="81">
+        <v>821440.84713661065</v>
+      </c>
+      <c r="J110" s="81">
+        <v>605272.20315329218</v>
+      </c>
+      <c r="K110" s="81">
+        <v>389103.55916997371</v>
+      </c>
+      <c r="L110" s="81">
+        <v>172934.91518665501</v>
+      </c>
+      <c r="M110" s="81">
+        <v>-43233.728796663694</v>
+      </c>
+      <c r="N110" s="81">
+        <v>-259402.37277998216</v>
+      </c>
+    </row>
+    <row r="111" spans="6:14">
+      <c r="F111" s="77"/>
+      <c r="G111" s="79">
+        <v>500</v>
+      </c>
+      <c r="H111" s="81">
+        <v>1039972.9779989794</v>
+      </c>
+      <c r="I111" s="81">
+        <v>831978.3823991837</v>
+      </c>
+      <c r="J111" s="81">
+        <v>623983.78679938777</v>
+      </c>
+      <c r="K111" s="81">
+        <v>415989.19119959185</v>
+      </c>
+      <c r="L111" s="81">
+        <v>207994.59559979592</v>
+      </c>
+      <c r="M111" s="81">
+        <v>0</v>
+      </c>
+      <c r="N111" s="81">
+        <v>-207994.59559979569</v>
+      </c>
+    </row>
+    <row r="112" spans="6:14">
+      <c r="F112" s="77"/>
+      <c r="G112" s="79">
+        <v>510</v>
+      </c>
+      <c r="H112" s="81">
+        <v>1041468.8061629091</v>
+      </c>
+      <c r="I112" s="81">
+        <v>841186.34343927284</v>
+      </c>
+      <c r="J112" s="81">
+        <v>640903.8807156363</v>
+      </c>
+      <c r="K112" s="81">
+        <v>440621.417992</v>
+      </c>
+      <c r="L112" s="81">
+        <v>240338.9552683637</v>
+      </c>
+      <c r="M112" s="81">
+        <v>40056.4925447274</v>
+      </c>
+      <c r="N112" s="81">
+        <v>-160225.97017890913</v>
+      </c>
+    </row>
+    <row r="113" spans="6:14">
+      <c r="F113" s="77"/>
+      <c r="G113" s="79">
+        <v>520</v>
+      </c>
+      <c r="H113" s="81">
+        <v>1042188.3139489595</v>
+      </c>
+      <c r="I113" s="81">
+        <v>849190.47803248558</v>
+      </c>
+      <c r="J113" s="81">
+        <v>656192.64211601159</v>
+      </c>
+      <c r="K113" s="81">
+        <v>463194.80619953759</v>
+      </c>
+      <c r="L113" s="81">
+        <v>270196.97028306359</v>
+      </c>
+      <c r="M113" s="81">
+        <v>77199.134366589598</v>
+      </c>
+      <c r="N113" s="81">
+        <v>-115798.70154988416</v>
+      </c>
+    </row>
+    <row r="114" spans="6:14">
+      <c r="F114" s="77"/>
+      <c r="G114" s="80">
+        <v>530</v>
+      </c>
+      <c r="H114" s="81">
+        <v>1042213.0017719698</v>
+      </c>
+      <c r="I114" s="81">
+        <v>856103.53716983227</v>
+      </c>
+      <c r="J114" s="81">
+        <v>669994.07256769482</v>
+      </c>
+      <c r="K114" s="81">
+        <v>483884.60796555737</v>
+      </c>
+      <c r="L114" s="81">
+        <v>297775.14336341992</v>
+      </c>
+      <c r="M114" s="81">
+        <v>111665.67876128247</v>
+      </c>
+      <c r="N114" s="81">
+        <v>-74443.78584085498</v>
+      </c>
+    </row>
+    <row r="115" spans="6:14">
+      <c r="F115" s="77"/>
+      <c r="G115" s="79">
+        <v>540</v>
+      </c>
+      <c r="H115" s="81">
+        <v>1041615.7035724644</v>
+      </c>
+      <c r="I115" s="81">
+        <v>862026.78916341881</v>
+      </c>
+      <c r="J115" s="81">
+        <v>682437.87475437322</v>
+      </c>
+      <c r="K115" s="81">
+        <v>502848.96034532762</v>
+      </c>
+      <c r="L115" s="81">
+        <v>323260.04593628203</v>
+      </c>
+      <c r="M115" s="81">
+        <v>143671.13152723666</v>
+      </c>
+      <c r="N115" s="81">
+        <v>-35917.782881808933</v>
+      </c>
+    </row>
+    <row r="116" spans="6:14">
+      <c r="F116" s="77"/>
+      <c r="G116" s="79">
+        <v>550</v>
+      </c>
+      <c r="H116" s="81">
+        <v>1040461.6031350964</v>
+      </c>
+      <c r="I116" s="81">
+        <v>867051.33594591368</v>
+      </c>
+      <c r="J116" s="81">
+        <v>693641.06875673099</v>
+      </c>
+      <c r="K116" s="81">
+        <v>520230.80156754819</v>
+      </c>
+      <c r="L116" s="81">
+        <v>346820.53437836538</v>
+      </c>
+      <c r="M116" s="81">
+        <v>173410.26718918281</v>
+      </c>
+      <c r="N116" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:14">
+      <c r="F117" s="77"/>
+      <c r="G117" s="79">
+        <v>560</v>
+      </c>
+      <c r="H117" s="81">
+        <v>1038809.1179690239</v>
+      </c>
+      <c r="I117" s="81">
+        <v>871259.26023208455</v>
+      </c>
+      <c r="J117" s="81">
+        <v>703709.4024951451</v>
+      </c>
+      <c r="K117" s="81">
+        <v>536159.544758206</v>
+      </c>
+      <c r="L117" s="81">
+        <v>368609.68702126667</v>
+      </c>
+      <c r="M117" s="81">
+        <v>201059.82928432734</v>
+      </c>
+      <c r="N117" s="81">
+        <v>33509.971547388006</v>
+      </c>
+    </row>
+    <row r="118" spans="6:14">
+      <c r="F118" s="77"/>
+      <c r="G118" s="79">
+        <v>570</v>
+      </c>
+      <c r="H118" s="81">
+        <v>1036710.669808225</v>
+      </c>
+      <c r="I118" s="81">
+        <v>874724.6276506898</v>
+      </c>
+      <c r="J118" s="81">
+        <v>712738.58549315459</v>
+      </c>
+      <c r="K118" s="81">
+        <v>550752.54333561938</v>
+      </c>
+      <c r="L118" s="81">
+        <v>388766.50117808441</v>
+      </c>
+      <c r="M118" s="81">
+        <v>226780.4590205492</v>
+      </c>
+      <c r="N118" s="81">
+        <v>64794.41686301399</v>
+      </c>
+    </row>
+    <row r="119" spans="6:14">
+      <c r="F119" s="77"/>
+      <c r="G119" s="79">
+        <v>580</v>
+      </c>
+      <c r="H119" s="81">
+        <v>1034213.3577876764</v>
+      </c>
+      <c r="I119" s="81">
+        <v>877514.36418348295</v>
+      </c>
+      <c r="J119" s="81">
+        <v>720815.37057928951</v>
+      </c>
+      <c r="K119" s="81">
+        <v>564116.37697509606</v>
+      </c>
+      <c r="L119" s="81">
+        <v>407417.38337090285</v>
+      </c>
+      <c r="M119" s="81">
+        <v>250718.38976670941</v>
+      </c>
+      <c r="N119" s="81">
+        <v>94019.396162515972</v>
+      </c>
+    </row>
+    <row r="120" spans="6:14">
+      <c r="F120" s="77"/>
+      <c r="G120" s="79">
+        <v>590</v>
+      </c>
+      <c r="H120" s="81">
+        <v>1031359.5478624469</v>
+      </c>
+      <c r="I120" s="81">
+        <v>879689.02611796942</v>
+      </c>
+      <c r="J120" s="81">
+        <v>728018.50437349197</v>
+      </c>
+      <c r="K120" s="81">
+        <v>576347.98262901441</v>
+      </c>
+      <c r="L120" s="81">
+        <v>424677.46088453708</v>
+      </c>
+      <c r="M120" s="81">
+        <v>273006.93914005952</v>
+      </c>
+      <c r="N120" s="81">
+        <v>121336.41739558196</v>
+      </c>
+    </row>
+    <row r="121" spans="6:14">
+      <c r="F121" s="77"/>
+      <c r="G121" s="79">
+        <v>600</v>
+      </c>
+      <c r="H121" s="81">
+        <v>1028187.3899667513</v>
+      </c>
+      <c r="I121" s="81">
+        <v>881303.47711435833</v>
+      </c>
+      <c r="J121" s="81">
+        <v>734419.56426196522</v>
+      </c>
+      <c r="K121" s="81">
+        <v>587535.65140957222</v>
+      </c>
+      <c r="L121" s="81">
+        <v>440651.73855717899</v>
+      </c>
+      <c r="M121" s="81">
+        <v>293767.825704786</v>
+      </c>
+      <c r="N121" s="81">
+        <v>146883.912852393</v>
+      </c>
+    </row>
+    <row r="122" spans="6:14">
+      <c r="F122" s="77"/>
+      <c r="G122" s="81">
+        <v>700</v>
+      </c>
+      <c r="H122" s="81">
+        <v>985104.42081539321</v>
+      </c>
+      <c r="I122" s="81">
+        <v>875648.37405812729</v>
+      </c>
+      <c r="J122" s="81">
+        <v>766192.32730086136</v>
+      </c>
+      <c r="K122" s="81">
+        <v>656736.28054359555</v>
+      </c>
+      <c r="L122" s="81">
+        <v>547280.23378632963</v>
+      </c>
+      <c r="M122" s="81">
+        <v>437824.1870290637</v>
+      </c>
+      <c r="N122" s="81">
+        <v>328368.14027179778</v>
+      </c>
+    </row>
+    <row r="123" spans="6:14">
+      <c r="F123" s="77"/>
+      <c r="G123" s="79">
+        <v>800</v>
+      </c>
+      <c r="H123" s="81">
+        <v>933219.50848926988</v>
+      </c>
+      <c r="I123" s="81">
+        <v>848381.37135388167</v>
+      </c>
+      <c r="J123" s="81">
+        <v>763543.23421849345</v>
+      </c>
+      <c r="K123" s="81">
+        <v>678705.09708310536</v>
+      </c>
+      <c r="L123" s="81">
+        <v>593866.95994771714</v>
+      </c>
+      <c r="M123" s="81">
+        <v>509028.82281232905</v>
+      </c>
+      <c r="N123" s="81">
+        <v>424190.68567694083</v>
+      </c>
+    </row>
+    <row r="124" spans="6:14">
+      <c r="F124" s="77"/>
+      <c r="G124" s="81">
+        <v>900</v>
+      </c>
+      <c r="H124" s="81">
+        <v>880917.95766693447</v>
+      </c>
+      <c r="I124" s="81">
+        <v>813155.03784640098</v>
+      </c>
+      <c r="J124" s="81">
+        <v>745392.11802586762</v>
+      </c>
+      <c r="K124" s="81">
+        <v>677629.19820533413</v>
+      </c>
+      <c r="L124" s="81">
+        <v>609866.27838480077</v>
+      </c>
+      <c r="M124" s="81">
+        <v>542103.35856426728</v>
+      </c>
+      <c r="N124" s="81">
+        <v>474340.43874373392</v>
+      </c>
+    </row>
+    <row r="125" spans="6:14">
+      <c r="F125" s="77"/>
+      <c r="G125" s="81">
+        <v>1000</v>
+      </c>
+      <c r="H125" s="81">
+        <v>831338.85314930137</v>
+      </c>
+      <c r="I125" s="81">
+        <v>775916.262939348</v>
+      </c>
+      <c r="J125" s="81">
+        <v>720493.67272939463</v>
+      </c>
+      <c r="K125" s="81">
+        <v>665071.08251944114</v>
+      </c>
+      <c r="L125" s="81">
+        <v>609648.49230948766</v>
+      </c>
+      <c r="M125" s="81">
+        <v>554225.90209953429</v>
+      </c>
+      <c r="N125" s="81">
+        <v>498803.3118895808</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H38:H76">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>" $593.536 "</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>" $593.536 "</formula>
+    </cfRule>
+    <cfRule type="top10" priority="4" percent="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="138">
   <si>
     <t>Quality Sweater Company</t>
   </si>
@@ -454,6 +454,12 @@
   <si>
     <t>Demand (00s):
 aplica la funcion power</t>
+  </si>
+  <si>
+    <t>Model the business/EXPONENTIAL</t>
+  </si>
+  <si>
+    <t>from exponential mode y=ae^(bx)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1052,13 +1058,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1184,6 +1325,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,6 +1403,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1289,30 +1454,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis5 2" xfId="2"/>
@@ -7492,11 +7670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -7766,11 +7944,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
@@ -7909,14 +8087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
@@ -8012,19 +8190,19 @@
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=MAX(B10-B9;0)</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="30" t="s">
@@ -8032,20 +8210,20 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="98" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="35">
@@ -8092,7 +8270,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=BUSCARV(B10;E4:F9;2;VERDADERO)*B10</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="14">
         <v>500</v>
       </c>
@@ -8126,7 +8304,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="90"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="14">
         <v>1000</v>
       </c>
@@ -8170,7 +8348,7 @@
         <f t="shared" ref="C17" ca="1" si="0">_xlfn.FORMULATEXT(B17)</f>
         <v>=MIN(B9;B10)*B4+B12*B5</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="14">
         <v>1500</v>
       </c>
@@ -8203,7 +8381,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E18" s="90"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="14">
         <v>2000</v>
       </c>
@@ -8247,7 +8425,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=B17-B15</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="14">
         <v>2500</v>
       </c>
@@ -8280,7 +8458,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="90"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="14">
         <v>3000</v>
       </c>
@@ -8313,7 +8491,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="90"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="14">
         <v>3500</v>
       </c>
@@ -8346,7 +8524,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="90"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="14">
         <v>4000</v>
       </c>
@@ -8379,7 +8557,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="E23" s="90"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="14">
         <v>4500</v>
       </c>
@@ -8459,19 +8637,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11">
       <c r="G2" s="34">
@@ -8498,7 +8676,7 @@
       <c r="B3" s="37">
         <v>3</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="108" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="14">
@@ -8530,7 +8708,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=100000*B3</v>
       </c>
-      <c r="F4" s="101"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="14">
         <v>2</v>
       </c>
@@ -8548,7 +8726,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="F5" s="101"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="14">
         <v>3</v>
       </c>
@@ -8572,7 +8750,7 @@
       <c r="B6" s="37">
         <v>774.95107632093936</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="14">
         <v>4</v>
       </c>
@@ -8601,7 +8779,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=365*B6</v>
       </c>
-      <c r="F7" s="102"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -8628,11 +8806,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1">
       <c r="A12" t="s">
@@ -8686,11 +8864,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1">
       <c r="A20" t="s">
@@ -8756,11 +8934,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
@@ -9075,16 +9253,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
@@ -9115,12 +9293,12 @@
       <c r="C2" s="53">
         <v>45</v>
       </c>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" customHeight="1">
       <c r="A3" s="53">
@@ -9132,12 +9310,12 @@
       <c r="C3" s="53">
         <v>103</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="53">
@@ -9149,12 +9327,12 @@
       <c r="C4" s="53">
         <v>49</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:13" s="84" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A5" s="83">
@@ -9166,12 +9344,12 @@
       <c r="C5" s="83">
         <v>86</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="119"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="53">
@@ -9270,53 +9448,54 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:13">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="123" t="s">
+      <c r="D15" s="117"/>
+      <c r="E15" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="119"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="85">
         <v>211.31</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="128">
+      <c r="D16" s="89">
         <v>5871064</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="87" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="57">
         <v>466.51</v>
       </c>
+      <c r="H16" s="76"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="86">
         <v>-0.35460000000000003</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="91">
         <v>-1.9079999999999999</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="87" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="64">
@@ -9801,8 +9980,8 @@
         <v>985104.42081539321</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30">
-      <c r="A38" s="131" t="s">
+    <row r="38" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A38" s="92" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="4">
@@ -9917,6 +10096,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
+      <c r="F45" s="76"/>
       <c r="G45" s="79">
         <v>330</v>
       </c>
@@ -9932,7 +10112,7 @@
         <v>781443.44106265297</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="G47" s="79">
         <v>350</v>
       </c>
@@ -9940,7 +10120,19 @@
         <v>821551.86522268457</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A48" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="135" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="136" t="s">
+        <v>121</v>
+      </c>
       <c r="G48" s="79">
         <v>360</v>
       </c>
@@ -9948,7 +10140,21 @@
         <v>856415.12424477958</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="1:10">
+      <c r="A49" s="137">
+        <v>450</v>
+      </c>
+      <c r="B49" s="133">
+        <f>$F$16*EXP($F$17*A49)</f>
+        <v>49.169792250355329</v>
+      </c>
+      <c r="C49" s="132">
+        <v>45</v>
+      </c>
+      <c r="D49" s="138">
+        <f>ABS(B49-C49)/C49</f>
+        <v>9.2662050007896193E-2</v>
+      </c>
       <c r="G49" s="79">
         <v>370</v>
       </c>
@@ -9956,7 +10162,21 @@
         <v>886684.61116254725</v>
       </c>
     </row>
-    <row r="50" spans="7:10">
+    <row r="50" spans="1:10">
+      <c r="A50" s="137">
+        <v>300</v>
+      </c>
+      <c r="B50" s="133">
+        <f>$F$16*EXP($F$17*A50)</f>
+        <v>104.09245101084399</v>
+      </c>
+      <c r="C50" s="132">
+        <v>103</v>
+      </c>
+      <c r="D50" s="138">
+        <f>ABS(B50-C50)/C50</f>
+        <v>1.0606320493630948E-2</v>
+      </c>
       <c r="G50" s="79">
         <v>380</v>
       </c>
@@ -9964,7 +10184,21 @@
         <v>912920.72098907013</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="1:10">
+      <c r="A51" s="137">
+        <v>440</v>
+      </c>
+      <c r="B51" s="133">
+        <f>$F$16*EXP($F$17*A51)</f>
+        <v>51.69078140761237</v>
+      </c>
+      <c r="C51" s="132">
+        <v>49</v>
+      </c>
+      <c r="D51" s="138">
+        <f>ABS(B51-C51)/C51</f>
+        <v>5.4913906277803466E-2</v>
+      </c>
       <c r="G51" s="79">
         <v>390</v>
       </c>
@@ -9972,7 +10206,21 @@
         <v>935607.253438466</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="1:10">
+      <c r="A52" s="137">
+        <v>360</v>
+      </c>
+      <c r="B52" s="133">
+        <f>$F$16*EXP($F$17*A52)</f>
+        <v>77.113584344252331</v>
+      </c>
+      <c r="C52" s="132">
+        <v>86</v>
+      </c>
+      <c r="D52" s="138">
+        <f>ABS(B52-C52)/C52</f>
+        <v>0.10333041460171709</v>
+      </c>
       <c r="G52" s="79">
         <v>400</v>
       </c>
@@ -9980,7 +10228,21 @@
         <v>955163.26238462282</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="1:10">
+      <c r="A53" s="137">
+        <v>290</v>
+      </c>
+      <c r="B53" s="133">
+        <f>$F$16*EXP($F$17*A53)</f>
+        <v>109.42938509863754</v>
+      </c>
+      <c r="C53" s="132">
+        <v>125</v>
+      </c>
+      <c r="D53" s="138">
+        <f>ABS(B53-C53)/C53</f>
+        <v>0.12456491921089968</v>
+      </c>
       <c r="G53" s="79">
         <v>410</v>
       </c>
@@ -9988,7 +10250,21 @@
         <v>971952.85243747453</v>
       </c>
     </row>
-    <row r="54" spans="7:10">
+    <row r="54" spans="1:10">
+      <c r="A54" s="137">
+        <v>450</v>
+      </c>
+      <c r="B54" s="133">
+        <f>$F$16*EXP($F$17*A54)</f>
+        <v>49.169792250355329</v>
+      </c>
+      <c r="C54" s="132">
+        <v>52</v>
+      </c>
+      <c r="D54" s="138">
+        <f>ABS(B54-C54)/C54</f>
+        <v>5.4427072108551369E-2</v>
+      </c>
       <c r="G54" s="79">
         <v>420</v>
       </c>
@@ -9996,7 +10272,21 @@
         <v>986293.31587235699</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="1:10">
+      <c r="A55" s="137">
+        <v>340</v>
+      </c>
+      <c r="B55" s="133">
+        <f>$F$16*EXP($F$17*A55)</f>
+        <v>85.223690805841244</v>
+      </c>
+      <c r="C55" s="132">
+        <v>87</v>
+      </c>
+      <c r="D55" s="138">
+        <f>ABS(B55-C55)/C55</f>
+        <v>2.0417347059296046E-2</v>
+      </c>
       <c r="G55" s="79">
         <v>430</v>
       </c>
@@ -10004,7 +10294,21 @@
         <v>998461.92082203622</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="1:10">
+      <c r="A56" s="137">
+        <v>370</v>
+      </c>
+      <c r="B56" s="133">
+        <f>$F$16*EXP($F$17*A56)</f>
+        <v>73.352710456970414</v>
+      </c>
+      <c r="C56" s="132">
+        <v>68</v>
+      </c>
+      <c r="D56" s="138">
+        <f>ABS(B56-C56)/C56</f>
+        <v>7.8716330249564911E-2</v>
+      </c>
       <c r="G56" s="79">
         <v>440</v>
       </c>
@@ -10012,7 +10316,21 @@
         <v>1008701.5979665397</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="1:10">
+      <c r="A57" s="137">
+        <v>500</v>
+      </c>
+      <c r="B57" s="133">
+        <f>$F$16*EXP($F$17*A57)</f>
+        <v>38.293472708035026</v>
+      </c>
+      <c r="C57" s="132">
+        <v>45</v>
+      </c>
+      <c r="D57" s="138">
+        <f>ABS(B57-C57)/C57</f>
+        <v>0.14903393982144386</v>
+      </c>
       <c r="G57" s="79">
         <v>450</v>
       </c>
@@ -10020,7 +10338,21 @@
         <v>1017225.7233983984</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="1:10">
+      <c r="A58" s="137">
+        <v>490</v>
+      </c>
+      <c r="B58" s="133">
+        <f>$F$16*EXP($F$17*A58)</f>
+        <v>40.256821037821332</v>
+      </c>
+      <c r="C58" s="132">
+        <v>44</v>
+      </c>
+      <c r="D58" s="138">
+        <f>ABS(B58-C58)/C58</f>
+        <v>8.5072249140424272E-2</v>
+      </c>
       <c r="G58" s="79">
         <v>460</v>
       </c>
@@ -10028,7 +10360,21 @@
         <v>1024222.1565401531</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="1:10">
+      <c r="A59" s="137">
+        <v>430</v>
+      </c>
+      <c r="B59" s="133">
+        <f>$F$16*EXP($F$17*A59)</f>
+        <v>54.341024442914069</v>
+      </c>
+      <c r="C59" s="132">
+        <v>58</v>
+      </c>
+      <c r="D59" s="138">
+        <f>ABS(B59-C59)/C59</f>
+        <v>6.3085785466998806E-2</v>
+      </c>
       <c r="G59" s="79">
         <v>470</v>
       </c>
@@ -10036,7 +10382,21 @@
         <v>1029856.6614397548</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="1:10">
+      <c r="A60" s="137">
+        <v>390</v>
+      </c>
+      <c r="B60" s="133">
+        <f>$F$16*EXP($F$17*A60)</f>
+        <v>66.372277135824447</v>
+      </c>
+      <c r="C60" s="132">
+        <v>68</v>
+      </c>
+      <c r="D60" s="138">
+        <f>ABS(B60-C60)/C60</f>
+        <v>2.393710094375813E-2</v>
+      </c>
       <c r="G60" s="79">
         <v>480</v>
       </c>
@@ -10044,7 +10404,14 @@
         <v>1034275.8155834542</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141">
+        <f>AVERAGE(D49:D60)</f>
+        <v>7.17306196151654E-2</v>
+      </c>
       <c r="G61" s="79">
         <v>490</v>
       </c>
@@ -10052,7 +10419,7 @@
         <v>1037609.4911199291</v>
       </c>
     </row>
-    <row r="62" spans="7:10">
+    <row r="62" spans="1:10">
       <c r="G62" s="79">
         <v>500</v>
       </c>
@@ -10060,7 +10427,7 @@
         <v>1039972.9779989794</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="1:10">
       <c r="G63" s="79">
         <v>510</v>
       </c>
@@ -10068,7 +10435,7 @@
         <v>1041468.8061629091</v>
       </c>
     </row>
-    <row r="64" spans="7:10">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1">
       <c r="G64" s="79">
         <v>520</v>
       </c>
@@ -10079,7 +10446,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="7:10" ht="30">
+    <row r="65" spans="1:10" ht="30">
+      <c r="A65" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="144"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
       <c r="G65" s="80">
         <v>530</v>
       </c>
@@ -10090,7 +10463,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="1:10">
+      <c r="A66" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="146">
+        <v>466.51</v>
+      </c>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
       <c r="G66" s="79">
         <v>540</v>
       </c>
@@ -10098,7 +10479,15 @@
         <v>1041615.7035724644</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A67" s="147" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="148">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
       <c r="G67" s="79">
         <v>550</v>
       </c>
@@ -10106,7 +10495,7 @@
         <v>1040461.6031350964</v>
       </c>
     </row>
-    <row r="68" spans="7:10" ht="13.5" customHeight="1">
+    <row r="68" spans="1:10" ht="13.5" customHeight="1">
       <c r="G68" s="79">
         <v>560</v>
       </c>
@@ -10115,7 +10504,11 @@
       </c>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="1:10">
+      <c r="A69" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="149"/>
       <c r="G69" s="79">
         <v>570</v>
       </c>
@@ -10123,7 +10516,13 @@
         <v>1036710.669808225</v>
       </c>
     </row>
-    <row r="70" spans="7:10">
+    <row r="70" spans="1:10">
+      <c r="A70" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="2">
+        <v>250</v>
+      </c>
       <c r="G70" s="79">
         <v>580</v>
       </c>
@@ -10131,7 +10530,13 @@
         <v>1034213.3577876764</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="1:10">
+      <c r="A71" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="2">
+        <v>700</v>
+      </c>
       <c r="G71" s="79">
         <v>590</v>
       </c>
@@ -10139,7 +10544,16 @@
         <v>1031359.5478624469</v>
       </c>
     </row>
-    <row r="72" spans="7:10">
+    <row r="72" spans="1:10" ht="30">
+      <c r="A72" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="142">
+        <f>$F$16*EXP(F17*$B$71)</f>
+        <v>14.087381340345804</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
       <c r="G72" s="79">
         <v>600</v>
       </c>
@@ -10147,7 +10561,16 @@
         <v>1028187.3899667513</v>
       </c>
     </row>
-    <row r="73" spans="7:10">
+    <row r="73" spans="1:10">
+      <c r="A73" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="4">
+        <f>B72*100</f>
+        <v>1408.7381340345803</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
       <c r="G73" s="81">
         <v>700</v>
       </c>
@@ -10155,7 +10578,9 @@
         <v>985104.42081539321</v>
       </c>
     </row>
-    <row r="74" spans="7:10">
+    <row r="74" spans="1:10">
+      <c r="A74" s="76"/>
+      <c r="B74" s="76"/>
       <c r="G74" s="79">
         <v>800</v>
       </c>
@@ -10163,7 +10588,14 @@
         <v>933219.50848926988</v>
       </c>
     </row>
-    <row r="75" spans="7:10">
+    <row r="75" spans="1:10">
+      <c r="A75" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="2">
+        <f>B73*B70</f>
+        <v>352184.53350864508</v>
+      </c>
       <c r="G75" s="81">
         <v>900</v>
       </c>
@@ -10171,7 +10603,14 @@
         <v>880917.95766693447</v>
       </c>
     </row>
-    <row r="76" spans="7:10">
+    <row r="76" spans="1:10">
+      <c r="A76" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="2">
+        <f>B73*B71</f>
+        <v>986116.69382420625</v>
+      </c>
       <c r="G76" s="81">
         <v>1000</v>
       </c>
@@ -10179,16 +10618,23 @@
         <v>831338.85314930137</v>
       </c>
     </row>
-    <row r="77" spans="7:10">
+    <row r="77" spans="1:10">
+      <c r="A77" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="150">
+        <f>B76-B75</f>
+        <v>633932.16031556111</v>
+      </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="1:10">
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="1:10">
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="1:10">
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="6:14">
@@ -11301,7 +11747,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Sweater company" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="N&amp;B bookstore" sheetId="3" r:id="rId3"/>
     <sheet name="COPIER" sheetId="4" r:id="rId4"/>
     <sheet name="Band `Screamin Blue Jays" sheetId="5" r:id="rId5"/>
-    <sheet name="shop 19th Hole" sheetId="6" r:id="rId6"/>
+    <sheet name="theory" sheetId="8" r:id="rId6"/>
+    <sheet name="shop 19th Hole" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">'Quality Sweater company'!$F$7:$F$17</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>Quality Sweater Company</t>
   </si>
@@ -460,6 +461,24 @@
   </si>
   <si>
     <t>from exponential mode y=ae^(bx)</t>
+  </si>
+  <si>
+    <t>Proceso de modelización:</t>
+  </si>
+  <si>
+    <t>La función potencial me da un beneficio máximo mayor: 1042.213 con un precio en el par de palos de 530€.</t>
+  </si>
+  <si>
+    <t>La función exponencial me da un beneficio máximo menor respecto a la función potencial: 983.395 con un precio en el par de palos de 450€.</t>
+  </si>
+  <si>
+    <t>Hemos visto que con la función potencial el beneficio es mayor, por lo que es la que recomendamos.</t>
+  </si>
+  <si>
+    <t>1. Según los datos que tengo: precios y demanda (palos vendidos), he graficado estos datos (reales) con una gráfica de dispersión.
+2. Le añado línea tendencia (pueden ser lineal, potencial, exponencial...), en el símbolo + , la última opción.
+3. He sacado las funciones de esas gráficas (botón derecho sobre la gráfica hay opción de mostrar la función) y las he utilizado para hallar el error porcentual absoluto, para ver qué función está más cerca de la demanda real; el porcentaje más pequeño será la función más próxima a mis datos.
+4. He visto que en este caso es la función potencial; la he utilizado para hacer una hipótesis con diferentes precios para hallar el precio que me dará el beneficio mayor; poniendo en la celda fantasma el precio y en modelo de hipótesis, tabla de datos.</t>
   </si>
 </sst>
 </file>
@@ -471,7 +490,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +597,14 @@
       <color theme="4"/>
       <name val="Var(--cds-font-family-source-sa"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--cds-font-family-source-sa"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +698,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1230,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1337,6 +1368,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1400,6 +1459,15 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1454,50 +1522,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis5 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2983,6 +3042,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7670,11 +7730,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -7944,11 +8004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
@@ -8087,14 +8147,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
@@ -8190,19 +8250,19 @@
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=MAX(B10-B9;0)</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="30" t="s">
@@ -8210,20 +8270,20 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="114" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="35">
@@ -8270,7 +8330,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=BUSCARV(B10;E4:F9;2;VERDADERO)*B10</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="14">
         <v>500</v>
       </c>
@@ -8304,7 +8364,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="98"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="14">
         <v>1000</v>
       </c>
@@ -8348,7 +8408,7 @@
         <f t="shared" ref="C17" ca="1" si="0">_xlfn.FORMULATEXT(B17)</f>
         <v>=MIN(B9;B10)*B4+B12*B5</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="14">
         <v>1500</v>
       </c>
@@ -8381,7 +8441,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E18" s="98"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="14">
         <v>2000</v>
       </c>
@@ -8425,7 +8485,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=B17-B15</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="14">
         <v>2500</v>
       </c>
@@ -8458,7 +8518,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="98"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="14">
         <v>3000</v>
       </c>
@@ -8491,7 +8551,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="98"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="14">
         <v>3500</v>
       </c>
@@ -8524,7 +8584,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="98"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="14">
         <v>4000</v>
       </c>
@@ -8557,7 +8617,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="E23" s="98"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="14">
         <v>4500</v>
       </c>
@@ -8637,19 +8697,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="122"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11">
       <c r="G2" s="34">
@@ -8676,7 +8736,7 @@
       <c r="B3" s="37">
         <v>3</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="124" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="14">
@@ -8708,7 +8768,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=100000*B3</v>
       </c>
-      <c r="F4" s="109"/>
+      <c r="F4" s="125"/>
       <c r="G4" s="14">
         <v>2</v>
       </c>
@@ -8726,7 +8786,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="F5" s="109"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="14">
         <v>3</v>
       </c>
@@ -8750,7 +8810,7 @@
       <c r="B6" s="37">
         <v>774.95107632093936</v>
       </c>
-      <c r="F6" s="109"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="14">
         <v>4</v>
       </c>
@@ -8779,7 +8839,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=365*B6</v>
       </c>
-      <c r="F7" s="110"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -8806,11 +8866,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1">
       <c r="A12" t="s">
@@ -8864,11 +8924,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1">
       <c r="A20" t="s">
@@ -8934,11 +8994,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
@@ -9251,10 +9311,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="134.140625" style="157" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="154" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+    </row>
+    <row r="4" spans="1:3" ht="99.75">
+      <c r="A4" s="158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="159" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="159" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9263,7 +9372,7 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
@@ -9293,12 +9402,12 @@
       <c r="C2" s="53">
         <v>45</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" customHeight="1">
       <c r="A3" s="53">
@@ -9310,12 +9419,12 @@
       <c r="C3" s="53">
         <v>103</v>
       </c>
-      <c r="J3" s="123" t="s">
+      <c r="J3" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="144"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="53">
@@ -9327,12 +9436,12 @@
       <c r="C4" s="53">
         <v>49</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="128"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="1:13" s="84" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
       <c r="A5" s="83">
@@ -9344,12 +9453,12 @@
       <c r="C5" s="83">
         <v>86</v>
       </c>
-      <c r="J5" s="129" t="s">
+      <c r="J5" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="131"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="53">
@@ -9448,18 +9557,18 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:13">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="119"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="56" t="s">
@@ -9999,7 +10108,7 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -10121,16 +10230,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A48" s="134" t="s">
+      <c r="A48" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="135" t="s">
+      <c r="B48" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="135" t="s">
+      <c r="C48" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="136" t="s">
+      <c r="D48" s="97" t="s">
         <v>121</v>
       </c>
       <c r="G48" s="79">
@@ -10141,18 +10250,18 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="137">
+      <c r="A49" s="98">
         <v>450</v>
       </c>
-      <c r="B49" s="133">
-        <f>$F$16*EXP($F$17*A49)</f>
+      <c r="B49" s="94">
+        <f t="shared" ref="B49:B60" si="7">$F$16*EXP($F$17*A49)</f>
         <v>49.169792250355329</v>
       </c>
-      <c r="C49" s="132">
+      <c r="C49" s="93">
         <v>45</v>
       </c>
-      <c r="D49" s="138">
-        <f>ABS(B49-C49)/C49</f>
+      <c r="D49" s="99">
+        <f t="shared" ref="D49:D60" si="8">ABS(B49-C49)/C49</f>
         <v>9.2662050007896193E-2</v>
       </c>
       <c r="G49" s="79">
@@ -10163,18 +10272,18 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="137">
+      <c r="A50" s="98">
         <v>300</v>
       </c>
-      <c r="B50" s="133">
-        <f>$F$16*EXP($F$17*A50)</f>
+      <c r="B50" s="94">
+        <f t="shared" si="7"/>
         <v>104.09245101084399</v>
       </c>
-      <c r="C50" s="132">
+      <c r="C50" s="93">
         <v>103</v>
       </c>
-      <c r="D50" s="138">
-        <f>ABS(B50-C50)/C50</f>
+      <c r="D50" s="99">
+        <f t="shared" si="8"/>
         <v>1.0606320493630948E-2</v>
       </c>
       <c r="G50" s="79">
@@ -10185,18 +10294,18 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="137">
+      <c r="A51" s="98">
         <v>440</v>
       </c>
-      <c r="B51" s="133">
-        <f>$F$16*EXP($F$17*A51)</f>
+      <c r="B51" s="94">
+        <f t="shared" si="7"/>
         <v>51.69078140761237</v>
       </c>
-      <c r="C51" s="132">
+      <c r="C51" s="93">
         <v>49</v>
       </c>
-      <c r="D51" s="138">
-        <f>ABS(B51-C51)/C51</f>
+      <c r="D51" s="99">
+        <f t="shared" si="8"/>
         <v>5.4913906277803466E-2</v>
       </c>
       <c r="G51" s="79">
@@ -10207,18 +10316,18 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="137">
+      <c r="A52" s="98">
         <v>360</v>
       </c>
-      <c r="B52" s="133">
-        <f>$F$16*EXP($F$17*A52)</f>
+      <c r="B52" s="94">
+        <f t="shared" si="7"/>
         <v>77.113584344252331</v>
       </c>
-      <c r="C52" s="132">
+      <c r="C52" s="93">
         <v>86</v>
       </c>
-      <c r="D52" s="138">
-        <f>ABS(B52-C52)/C52</f>
+      <c r="D52" s="99">
+        <f t="shared" si="8"/>
         <v>0.10333041460171709</v>
       </c>
       <c r="G52" s="79">
@@ -10229,18 +10338,18 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="137">
+      <c r="A53" s="98">
         <v>290</v>
       </c>
-      <c r="B53" s="133">
-        <f>$F$16*EXP($F$17*A53)</f>
+      <c r="B53" s="94">
+        <f t="shared" si="7"/>
         <v>109.42938509863754</v>
       </c>
-      <c r="C53" s="132">
+      <c r="C53" s="93">
         <v>125</v>
       </c>
-      <c r="D53" s="138">
-        <f>ABS(B53-C53)/C53</f>
+      <c r="D53" s="99">
+        <f t="shared" si="8"/>
         <v>0.12456491921089968</v>
       </c>
       <c r="G53" s="79">
@@ -10251,18 +10360,18 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="137">
+      <c r="A54" s="98">
         <v>450</v>
       </c>
-      <c r="B54" s="133">
-        <f>$F$16*EXP($F$17*A54)</f>
+      <c r="B54" s="94">
+        <f t="shared" si="7"/>
         <v>49.169792250355329</v>
       </c>
-      <c r="C54" s="132">
+      <c r="C54" s="93">
         <v>52</v>
       </c>
-      <c r="D54" s="138">
-        <f>ABS(B54-C54)/C54</f>
+      <c r="D54" s="99">
+        <f t="shared" si="8"/>
         <v>5.4427072108551369E-2</v>
       </c>
       <c r="G54" s="79">
@@ -10273,18 +10382,18 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="137">
+      <c r="A55" s="98">
         <v>340</v>
       </c>
-      <c r="B55" s="133">
-        <f>$F$16*EXP($F$17*A55)</f>
+      <c r="B55" s="94">
+        <f t="shared" si="7"/>
         <v>85.223690805841244</v>
       </c>
-      <c r="C55" s="132">
+      <c r="C55" s="93">
         <v>87</v>
       </c>
-      <c r="D55" s="138">
-        <f>ABS(B55-C55)/C55</f>
+      <c r="D55" s="99">
+        <f t="shared" si="8"/>
         <v>2.0417347059296046E-2</v>
       </c>
       <c r="G55" s="79">
@@ -10295,18 +10404,18 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="137">
+      <c r="A56" s="98">
         <v>370</v>
       </c>
-      <c r="B56" s="133">
-        <f>$F$16*EXP($F$17*A56)</f>
+      <c r="B56" s="94">
+        <f t="shared" si="7"/>
         <v>73.352710456970414</v>
       </c>
-      <c r="C56" s="132">
+      <c r="C56" s="93">
         <v>68</v>
       </c>
-      <c r="D56" s="138">
-        <f>ABS(B56-C56)/C56</f>
+      <c r="D56" s="99">
+        <f t="shared" si="8"/>
         <v>7.8716330249564911E-2</v>
       </c>
       <c r="G56" s="79">
@@ -10317,18 +10426,18 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="137">
+      <c r="A57" s="98">
         <v>500</v>
       </c>
-      <c r="B57" s="133">
-        <f>$F$16*EXP($F$17*A57)</f>
+      <c r="B57" s="94">
+        <f t="shared" si="7"/>
         <v>38.293472708035026</v>
       </c>
-      <c r="C57" s="132">
+      <c r="C57" s="93">
         <v>45</v>
       </c>
-      <c r="D57" s="138">
-        <f>ABS(B57-C57)/C57</f>
+      <c r="D57" s="99">
+        <f t="shared" si="8"/>
         <v>0.14903393982144386</v>
       </c>
       <c r="G57" s="79">
@@ -10339,18 +10448,18 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="137">
+      <c r="A58" s="98">
         <v>490</v>
       </c>
-      <c r="B58" s="133">
-        <f>$F$16*EXP($F$17*A58)</f>
+      <c r="B58" s="94">
+        <f t="shared" si="7"/>
         <v>40.256821037821332</v>
       </c>
-      <c r="C58" s="132">
+      <c r="C58" s="93">
         <v>44</v>
       </c>
-      <c r="D58" s="138">
-        <f>ABS(B58-C58)/C58</f>
+      <c r="D58" s="99">
+        <f t="shared" si="8"/>
         <v>8.5072249140424272E-2</v>
       </c>
       <c r="G58" s="79">
@@ -10361,18 +10470,18 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="137">
+      <c r="A59" s="98">
         <v>430</v>
       </c>
-      <c r="B59" s="133">
-        <f>$F$16*EXP($F$17*A59)</f>
+      <c r="B59" s="94">
+        <f t="shared" si="7"/>
         <v>54.341024442914069</v>
       </c>
-      <c r="C59" s="132">
+      <c r="C59" s="93">
         <v>58</v>
       </c>
-      <c r="D59" s="138">
-        <f>ABS(B59-C59)/C59</f>
+      <c r="D59" s="99">
+        <f t="shared" si="8"/>
         <v>6.3085785466998806E-2</v>
       </c>
       <c r="G59" s="79">
@@ -10383,18 +10492,18 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="137">
+      <c r="A60" s="98">
         <v>390</v>
       </c>
-      <c r="B60" s="133">
-        <f>$F$16*EXP($F$17*A60)</f>
+      <c r="B60" s="94">
+        <f t="shared" si="7"/>
         <v>66.372277135824447</v>
       </c>
-      <c r="C60" s="132">
+      <c r="C60" s="93">
         <v>68</v>
       </c>
-      <c r="D60" s="138">
-        <f>ABS(B60-C60)/C60</f>
+      <c r="D60" s="99">
+        <f t="shared" si="8"/>
         <v>2.393710094375813E-2</v>
       </c>
       <c r="G60" s="79">
@@ -10405,10 +10514,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A61" s="139"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="141">
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102">
         <f>AVERAGE(D49:D60)</f>
         <v>7.17306196151654E-2</v>
       </c>
@@ -10420,6 +10529,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
+      <c r="E62" s="76"/>
       <c r="G62" s="79">
         <v>500</v>
       </c>
@@ -10446,13 +10556,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30">
-      <c r="A65" s="143" t="s">
+    <row r="65" spans="1:16" ht="30">
+      <c r="A65" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="144"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
+      <c r="D65" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="77" t="s">
+        <v>131</v>
+      </c>
       <c r="G65" s="80">
         <v>530</v>
       </c>
@@ -10463,15 +10578,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="145" t="s">
+    <row r="66" spans="1:16">
+      <c r="A66" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="146">
+      <c r="B66" s="105">
         <v>466.51</v>
       </c>
       <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="78">
+        <f>B77</f>
+        <v>633932.16031556111</v>
+      </c>
       <c r="G66" s="79">
         <v>540</v>
       </c>
@@ -10479,15 +10598,21 @@
         <v>1041615.7035724644</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A67" s="147" t="s">
+    <row r="67" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A67" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="148">
+      <c r="B67" s="107">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
+      <c r="D67" s="79">
+        <v>260</v>
+      </c>
+      <c r="E67" s="151">
+        <f t="dataTable" ref="E67:E104" dt2D="0" dtr="0" r1="B71"/>
+        <v>127138.80676829722</v>
+      </c>
       <c r="G67" s="79">
         <v>550</v>
       </c>
@@ -10495,7 +10620,13 @@
         <v>1040461.6031350964</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="13.5" customHeight="1">
+    <row r="68" spans="1:16" ht="13.5" customHeight="1">
+      <c r="D68" s="81">
+        <v>270</v>
+      </c>
+      <c r="E68" s="152">
+        <v>241876.34798782971</v>
+      </c>
       <c r="G68" s="79">
         <v>560</v>
       </c>
@@ -10504,11 +10635,17 @@
       </c>
       <c r="J68" s="54"/>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="149" t="s">
+    <row r="69" spans="1:16">
+      <c r="A69" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="149"/>
+      <c r="B69" s="130"/>
+      <c r="D69" s="79">
+        <v>280</v>
+      </c>
+      <c r="E69" s="152">
+        <v>345119.84894519672</v>
+      </c>
       <c r="G69" s="79">
         <v>570</v>
       </c>
@@ -10516,13 +10653,19 @@
         <v>1036710.669808225</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:16">
       <c r="A70" s="76" t="s">
         <v>125</v>
       </c>
       <c r="B70" s="2">
         <v>250</v>
       </c>
+      <c r="D70" s="81">
+        <v>290</v>
+      </c>
+      <c r="E70" s="152">
+        <v>437717.54039455019</v>
+      </c>
       <c r="G70" s="79">
         <v>580</v>
       </c>
@@ -10530,13 +10673,19 @@
         <v>1034213.3577876764</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:16">
       <c r="A71" s="76" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="2">
         <v>700</v>
       </c>
+      <c r="D71" s="79">
+        <v>300</v>
+      </c>
+      <c r="E71" s="152">
+        <v>520462.25505421963</v>
+      </c>
       <c r="G71" s="79">
         <v>590</v>
       </c>
@@ -10544,16 +10693,21 @@
         <v>1031359.5478624469</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30">
+    <row r="72" spans="1:16" ht="30">
       <c r="A72" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="142">
+      <c r="B72" s="103">
         <f>$F$16*EXP(F17*$B$71)</f>
         <v>14.087381340345804</v>
       </c>
       <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
+      <c r="D72" s="81">
+        <v>310</v>
+      </c>
+      <c r="E72" s="152">
+        <v>594094.81361948326</v>
+      </c>
       <c r="G72" s="79">
         <v>600</v>
       </c>
@@ -10561,7 +10715,7 @@
         <v>1028187.3899667513</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:16">
       <c r="A73" s="76" t="s">
         <v>130</v>
       </c>
@@ -10570,7 +10724,12 @@
         <v>1408.7381340345803</v>
       </c>
       <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
+      <c r="D73" s="79">
+        <v>320</v>
+      </c>
+      <c r="E73" s="152">
+        <v>659307.21226780722</v>
+      </c>
       <c r="G73" s="81">
         <v>700</v>
       </c>
@@ -10578,9 +10737,15 @@
         <v>985104.42081539321</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:16">
       <c r="A74" s="76"/>
       <c r="B74" s="76"/>
+      <c r="D74" s="81">
+        <v>330</v>
+      </c>
+      <c r="E74" s="152">
+        <v>716745.62296534376</v>
+      </c>
       <c r="G74" s="79">
         <v>800</v>
       </c>
@@ -10588,7 +10753,7 @@
         <v>933219.50848926988</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:16">
       <c r="A75" s="76" t="s">
         <v>50</v>
       </c>
@@ -10596,6 +10761,12 @@
         <f>B73*B70</f>
         <v>352184.53350864508</v>
       </c>
+      <c r="D75" s="79">
+        <v>340</v>
+      </c>
+      <c r="E75" s="152">
+        <v>767013.21725257114</v>
+      </c>
       <c r="G75" s="81">
         <v>900</v>
       </c>
@@ -10603,7 +10774,7 @@
         <v>880917.95766693447</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:16">
       <c r="A76" s="76" t="s">
         <v>52</v>
       </c>
@@ -10611,6 +10782,12 @@
         <f>B73*B71</f>
         <v>986116.69382420625</v>
       </c>
+      <c r="D76" s="81">
+        <v>350</v>
+      </c>
+      <c r="E76" s="152">
+        <v>810672.82359067164</v>
+      </c>
       <c r="G76" s="81">
         <v>1000</v>
       </c>
@@ -10618,1154 +10795,1316 @@
         <v>831338.85314930137</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:16">
       <c r="A77" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="150">
+      <c r="B77" s="108">
         <f>B76-B75</f>
         <v>633932.16031556111</v>
       </c>
+      <c r="D77" s="79">
+        <v>360</v>
+      </c>
+      <c r="E77" s="152">
+        <v>848249.42778677586</v>
+      </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:16">
+      <c r="D78" s="81">
+        <v>370</v>
+      </c>
+      <c r="E78" s="152">
+        <v>880232.5254836448</v>
+      </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:16">
+      <c r="D79" s="79">
+        <v>380</v>
+      </c>
+      <c r="E79" s="152">
+        <v>907078.33519616933</v>
+      </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:16">
+      <c r="D80" s="81">
+        <v>390</v>
+      </c>
+      <c r="E80" s="152">
+        <v>929211.8799015421</v>
+      </c>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="6:14">
+      <c r="H80" s="77"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+    </row>
+    <row r="81" spans="4:16">
+      <c r="D81" s="79">
+        <v>400</v>
+      </c>
+      <c r="E81" s="152">
+        <v>947028.94474068307</v>
+      </c>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="6:14">
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="6:14">
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="6:14">
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="6:14">
-      <c r="F85" s="77"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="77"/>
-    </row>
-    <row r="86" spans="6:14">
-      <c r="F86" s="77"/>
-      <c r="G86" s="82">
+      <c r="H81" s="77"/>
+      <c r="I81" s="82">
         <f>B42-B41</f>
         <v>985104.42081539321</v>
       </c>
-      <c r="H86" s="77">
+      <c r="J81" s="77">
         <v>250</v>
       </c>
-      <c r="I86" s="77">
+      <c r="K81" s="77">
         <v>300</v>
       </c>
-      <c r="J86" s="77">
+      <c r="L81" s="77">
         <v>350</v>
       </c>
-      <c r="K86" s="77">
+      <c r="M81" s="77">
         <v>400</v>
       </c>
-      <c r="L86" s="77">
+      <c r="N81" s="77">
         <v>450</v>
       </c>
-      <c r="M86" s="77">
+      <c r="O81" s="77">
         <v>500</v>
       </c>
-      <c r="N86" s="77">
+      <c r="P81" s="77">
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="6:14">
-      <c r="F87" s="77" t="s">
+    <row r="82" spans="4:16">
+      <c r="D82" s="81">
+        <v>410</v>
+      </c>
+      <c r="E82" s="152">
+        <v>960897.91796394461</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="79">
+      <c r="I82" s="79">
         <v>260</v>
       </c>
-      <c r="H87" s="81">
-        <f t="dataTable" ref="H87:N125" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
+      <c r="J82" s="81">
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
         <v>144859.72842847556</v>
       </c>
-      <c r="I87" s="81">
+      <c r="K82" s="81">
         <v>-579438.91371390224</v>
       </c>
+      <c r="L82" s="81">
+        <v>-1303737.5558562791</v>
+      </c>
+      <c r="M82" s="81">
+        <v>-2028036.1979986569</v>
+      </c>
+      <c r="N82" s="81">
+        <v>-2752334.8401410338</v>
+      </c>
+      <c r="O82" s="81">
+        <v>-3476633.4822834115</v>
+      </c>
+      <c r="P82" s="81">
+        <v>-4200932.1244257884</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16">
+      <c r="D83" s="79">
+        <v>420</v>
+      </c>
+      <c r="E83" s="152">
+        <v>971161.52185307606</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="79">
+        <v>270</v>
+      </c>
+      <c r="J83" s="81">
+        <v>269590.60184817808</v>
+      </c>
+      <c r="K83" s="81">
+        <v>-404385.90277226688</v>
+      </c>
+      <c r="L83" s="81">
+        <v>-1078362.4073927123</v>
+      </c>
+      <c r="M83" s="81">
+        <v>-1752338.9120131573</v>
+      </c>
+      <c r="N83" s="81">
+        <v>-2426315.4166336022</v>
+      </c>
+      <c r="O83" s="81">
+        <v>-3100291.9212540481</v>
+      </c>
+      <c r="P83" s="81">
+        <v>-3774268.4258744931</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16">
+      <c r="D84" s="81">
+        <v>430</v>
+      </c>
+      <c r="E84" s="152">
+        <v>978138.43997245352</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="79">
+        <v>280</v>
+      </c>
+      <c r="J84" s="81">
+        <v>377277.18719872413</v>
+      </c>
+      <c r="K84" s="81">
+        <v>-251518.12479914958</v>
+      </c>
+      <c r="L84" s="81">
+        <v>-880313.43679702282</v>
+      </c>
+      <c r="M84" s="81">
+        <v>-1509108.7487948965</v>
+      </c>
+      <c r="N84" s="81">
+        <v>-2137904.0607927702</v>
+      </c>
+      <c r="O84" s="81">
+        <v>-2766699.3727906439</v>
+      </c>
+      <c r="P84" s="81">
+        <v>-3395494.6847885177</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16">
+      <c r="D85" s="79">
+        <v>440</v>
+      </c>
+      <c r="E85" s="152">
+        <v>982124.84674463491</v>
+      </c>
+      <c r="H85" s="77"/>
+      <c r="I85" s="79">
+        <v>290</v>
+      </c>
+      <c r="J85" s="81">
+        <v>470458.61526328744</v>
+      </c>
+      <c r="K85" s="81">
+        <v>-117614.65381582174</v>
+      </c>
+      <c r="L85" s="81">
+        <v>-705687.9228949314</v>
+      </c>
+      <c r="M85" s="81">
+        <v>-1293761.1919740411</v>
+      </c>
+      <c r="N85" s="81">
+        <v>-1881834.4610531498</v>
+      </c>
+      <c r="O85" s="81">
+        <v>-2469907.7301322594</v>
+      </c>
+      <c r="P85" s="81">
+        <v>-3057980.9992113691</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16">
+      <c r="D86" s="153">
+        <v>450</v>
+      </c>
+      <c r="E86" s="152">
+        <v>983395.84500710666</v>
+      </c>
+      <c r="H86" s="77"/>
+      <c r="I86" s="79">
+        <v>300</v>
+      </c>
+      <c r="J86" s="81">
+        <v>551238.40185229108</v>
+      </c>
+      <c r="K86" s="81">
+        <v>0</v>
+      </c>
+      <c r="L86" s="81">
+        <v>-551238.40185229108</v>
+      </c>
+      <c r="M86" s="81">
+        <v>-1102476.8037045817</v>
+      </c>
+      <c r="N86" s="81">
+        <v>-1653715.2055568728</v>
+      </c>
+      <c r="O86" s="81">
+        <v>-2204953.6074091638</v>
+      </c>
+      <c r="P86" s="81">
+        <v>-2756192.0092614549</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16">
+      <c r="D87" s="79">
+        <v>460</v>
+      </c>
+      <c r="E87" s="152">
+        <v>982206.81688762805</v>
+      </c>
+      <c r="H87" s="77"/>
+      <c r="I87" s="79">
+        <v>310</v>
+      </c>
       <c r="J87" s="81">
-        <v>-1303737.5558562791</v>
+        <v>621369.53021456813</v>
       </c>
       <c r="K87" s="81">
-        <v>-2028036.1979986569</v>
+        <v>103561.58836909477</v>
       </c>
       <c r="L87" s="81">
-        <v>-2752334.8401410338</v>
+        <v>-414246.3534763786</v>
       </c>
       <c r="M87" s="81">
-        <v>-3476633.4822834115</v>
+        <v>-932054.2953218515</v>
       </c>
       <c r="N87" s="81">
-        <v>-4200932.1244257884</v>
-      </c>
-    </row>
-    <row r="88" spans="6:14">
-      <c r="F88" s="77"/>
-      <c r="G88" s="79">
-        <v>270</v>
-      </c>
-      <c r="H88" s="81">
-        <v>269590.60184817808</v>
-      </c>
-      <c r="I88" s="81">
-        <v>-404385.90277226688</v>
+        <v>-1449862.2371673249</v>
+      </c>
+      <c r="O87" s="81">
+        <v>-1967670.1790127978</v>
+      </c>
+      <c r="P87" s="81">
+        <v>-2485478.1208582716</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16">
+      <c r="D88" s="81">
+        <v>470</v>
+      </c>
+      <c r="E88" s="152">
+        <v>978794.6930338731</v>
+      </c>
+      <c r="H88" s="77"/>
+      <c r="I88" s="79">
+        <v>320</v>
       </c>
       <c r="J88" s="81">
-        <v>-1078362.4073927123</v>
+        <v>682320.93416212313</v>
       </c>
       <c r="K88" s="81">
-        <v>-1752338.9120131573</v>
+        <v>194948.83833203511</v>
       </c>
       <c r="L88" s="81">
-        <v>-2426315.4166336022</v>
+        <v>-292423.2574980529</v>
       </c>
       <c r="M88" s="81">
-        <v>-3100291.9212540481</v>
+        <v>-779795.35332814092</v>
       </c>
       <c r="N88" s="81">
-        <v>-3774268.4258744931</v>
-      </c>
-    </row>
-    <row r="89" spans="6:14">
-      <c r="F89" s="77"/>
-      <c r="G89" s="79">
-        <v>280</v>
-      </c>
-      <c r="H89" s="81">
-        <v>377277.18719872413</v>
-      </c>
-      <c r="I89" s="81">
-        <v>-251518.12479914958</v>
+        <v>-1267167.4491582289</v>
+      </c>
+      <c r="O88" s="81">
+        <v>-1754539.5449883174</v>
+      </c>
+      <c r="P88" s="81">
+        <v>-2241911.640818405</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16">
+      <c r="D89" s="79">
+        <v>480</v>
+      </c>
+      <c r="E89" s="152">
+        <v>973379.144948008</v>
+      </c>
+      <c r="G89" s="76"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="79">
+        <v>330</v>
       </c>
       <c r="J89" s="81">
-        <v>-880313.43679702282</v>
+        <v>735329.86392835062</v>
       </c>
       <c r="K89" s="81">
-        <v>-1509108.7487948965</v>
+        <v>275748.69897313137</v>
       </c>
       <c r="L89" s="81">
-        <v>-2137904.0607927702</v>
+        <v>-183832.46598208742</v>
       </c>
       <c r="M89" s="81">
-        <v>-2766699.3727906439</v>
+        <v>-643413.63093730668</v>
       </c>
       <c r="N89" s="81">
-        <v>-3395494.6847885177</v>
-      </c>
-    </row>
-    <row r="90" spans="6:14">
-      <c r="F90" s="77"/>
-      <c r="G90" s="79">
-        <v>290</v>
-      </c>
-      <c r="H90" s="81">
-        <v>470458.61526328744</v>
-      </c>
-      <c r="I90" s="81">
-        <v>-117614.65381582174</v>
+        <v>-1102994.7958925259</v>
+      </c>
+      <c r="O89" s="81">
+        <v>-1562575.9608477447</v>
+      </c>
+      <c r="P89" s="81">
+        <v>-2022157.125802964</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16">
+      <c r="D90" s="81">
+        <v>490</v>
+      </c>
+      <c r="E90" s="152">
+        <v>966163.70490771206</v>
+      </c>
+      <c r="H90" s="77"/>
+      <c r="I90" s="79">
+        <v>340</v>
       </c>
       <c r="J90" s="81">
-        <v>-705687.9228949314</v>
+        <v>781443.44106265297</v>
       </c>
       <c r="K90" s="81">
-        <v>-1293761.1919740411</v>
+        <v>347308.19602784561</v>
       </c>
       <c r="L90" s="81">
-        <v>-1881834.4610531498</v>
+        <v>-86827.049006961286</v>
       </c>
       <c r="M90" s="81">
-        <v>-2469907.7301322594</v>
+        <v>-520962.29404176865</v>
       </c>
       <c r="N90" s="81">
-        <v>-3057980.9992113691</v>
-      </c>
-    </row>
-    <row r="91" spans="6:14">
-      <c r="F91" s="77"/>
-      <c r="G91" s="79">
-        <v>300</v>
-      </c>
-      <c r="H91" s="81">
-        <v>551238.40185229108</v>
-      </c>
-      <c r="I91" s="81">
+        <v>-955097.53907657554</v>
+      </c>
+      <c r="O90" s="81">
+        <v>-1389232.7841113824</v>
+      </c>
+      <c r="P90" s="81">
+        <v>-1823368.0291461898</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16">
+      <c r="D91" s="79">
+        <v>500</v>
+      </c>
+      <c r="E91" s="152">
+        <v>957336.81770087557</v>
+      </c>
+      <c r="H91" s="77"/>
+      <c r="I91" s="79">
+        <v>350</v>
+      </c>
+      <c r="J91" s="81">
+        <v>821551.86522268457</v>
+      </c>
+      <c r="K91" s="81">
+        <v>410775.93261134205</v>
+      </c>
+      <c r="L91" s="81">
         <v>0</v>
       </c>
-      <c r="J91" s="81">
-        <v>-551238.40185229108</v>
-      </c>
-      <c r="K91" s="81">
-        <v>-1102476.8037045817</v>
-      </c>
-      <c r="L91" s="81">
-        <v>-1653715.2055568728</v>
-      </c>
       <c r="M91" s="81">
-        <v>-2204953.6074091638</v>
+        <v>-410775.93261134205</v>
       </c>
       <c r="N91" s="81">
-        <v>-2756192.0092614549</v>
-      </c>
-    </row>
-    <row r="92" spans="6:14">
-      <c r="F92" s="77"/>
-      <c r="G92" s="79">
-        <v>310</v>
-      </c>
-      <c r="H92" s="81">
-        <v>621369.53021456813</v>
-      </c>
-      <c r="I92" s="81">
-        <v>103561.58836909477</v>
+        <v>-821551.86522268457</v>
+      </c>
+      <c r="O91" s="81">
+        <v>-1232327.7978340266</v>
+      </c>
+      <c r="P91" s="81">
+        <v>-1643103.7304453691</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16">
+      <c r="D92" s="81">
+        <v>510</v>
+      </c>
+      <c r="E92" s="152">
+        <v>947072.82816114672</v>
+      </c>
+      <c r="H92" s="77"/>
+      <c r="I92" s="79">
+        <v>360</v>
       </c>
       <c r="J92" s="81">
-        <v>-414246.3534763786</v>
+        <v>856415.12424477958</v>
       </c>
       <c r="K92" s="81">
-        <v>-932054.2953218515</v>
+        <v>467135.52231533453</v>
       </c>
       <c r="L92" s="81">
-        <v>-1449862.2371673249</v>
+        <v>77855.920385889243</v>
       </c>
       <c r="M92" s="81">
-        <v>-1967670.1790127978</v>
+        <v>-311423.68154355604</v>
       </c>
       <c r="N92" s="81">
-        <v>-2485478.1208582716</v>
-      </c>
-    </row>
-    <row r="93" spans="6:14">
-      <c r="F93" s="77"/>
-      <c r="G93" s="79">
-        <v>320</v>
-      </c>
-      <c r="H93" s="81">
-        <v>682320.93416212313</v>
-      </c>
-      <c r="I93" s="81">
-        <v>194948.83833203511</v>
+        <v>-700703.28347300133</v>
+      </c>
+      <c r="O92" s="81">
+        <v>-1089982.8854024466</v>
+      </c>
+      <c r="P92" s="81">
+        <v>-1479262.4873318919</v>
+      </c>
+    </row>
+    <row r="93" spans="4:16">
+      <c r="D93" s="79">
+        <v>520</v>
+      </c>
+      <c r="E93" s="152">
+        <v>935532.90826476016</v>
+      </c>
+      <c r="H93" s="77"/>
+      <c r="I93" s="79">
+        <v>370</v>
       </c>
       <c r="J93" s="81">
-        <v>-292423.2574980529</v>
+        <v>886684.61116254725</v>
       </c>
       <c r="K93" s="81">
-        <v>-779795.35332814092</v>
+        <v>517232.68984481925</v>
       </c>
       <c r="L93" s="81">
-        <v>-1267167.4491582289</v>
+        <v>147780.76852709148</v>
       </c>
       <c r="M93" s="81">
-        <v>-1754539.5449883174</v>
+        <v>-221671.15279063676</v>
       </c>
       <c r="N93" s="81">
-        <v>-2241911.640818405</v>
-      </c>
-    </row>
-    <row r="94" spans="6:14">
-      <c r="F94" s="77"/>
-      <c r="G94" s="79">
-        <v>330</v>
-      </c>
-      <c r="H94" s="81">
-        <v>735329.86392835062</v>
-      </c>
-      <c r="I94" s="81">
-        <v>275748.69897313137</v>
+        <v>-591123.07410836453</v>
+      </c>
+      <c r="O93" s="81">
+        <v>-960574.9954260923</v>
+      </c>
+      <c r="P93" s="81">
+        <v>-1330026.9167438205</v>
+      </c>
+    </row>
+    <row r="94" spans="4:16">
+      <c r="D94" s="81">
+        <v>530</v>
+      </c>
+      <c r="E94" s="152">
+        <v>922865.92733498837</v>
+      </c>
+      <c r="H94" s="77"/>
+      <c r="I94" s="79">
+        <v>380</v>
       </c>
       <c r="J94" s="81">
-        <v>-183832.46598208742</v>
+        <v>912920.72098907013</v>
       </c>
       <c r="K94" s="81">
-        <v>-643413.63093730668</v>
+        <v>561797.36676250491</v>
       </c>
       <c r="L94" s="81">
-        <v>-1102994.7958925259</v>
+        <v>210674.01253593946</v>
       </c>
       <c r="M94" s="81">
-        <v>-1562575.9608477447</v>
+        <v>-140449.341690626</v>
       </c>
       <c r="N94" s="81">
-        <v>-2022157.125802964</v>
-      </c>
-    </row>
-    <row r="95" spans="6:14">
-      <c r="F95" s="77"/>
-      <c r="G95" s="79">
-        <v>340</v>
-      </c>
-      <c r="H95" s="81">
-        <v>781443.44106265297</v>
-      </c>
-      <c r="I95" s="81">
-        <v>347308.19602784561</v>
+        <v>-491572.69591719145</v>
+      </c>
+      <c r="O94" s="81">
+        <v>-842696.05014375644</v>
+      </c>
+      <c r="P94" s="81">
+        <v>-1193819.4043703219</v>
+      </c>
+    </row>
+    <row r="95" spans="4:16">
+      <c r="D95" s="79">
+        <v>540</v>
+      </c>
+      <c r="E95" s="152">
+        <v>909209.26869839907</v>
+      </c>
+      <c r="H95" s="77"/>
+      <c r="I95" s="79">
+        <v>390</v>
       </c>
       <c r="J95" s="81">
-        <v>-86827.049006961286</v>
+        <v>935607.253438466</v>
       </c>
       <c r="K95" s="81">
-        <v>-520962.29404176865</v>
+        <v>601461.80578187108</v>
       </c>
       <c r="L95" s="81">
-        <v>-955097.53907657554</v>
+        <v>267316.35812527593</v>
       </c>
       <c r="M95" s="81">
-        <v>-1389232.7841113824</v>
+        <v>-66829.08953131875</v>
       </c>
       <c r="N95" s="81">
-        <v>-1823368.0291461898</v>
-      </c>
-    </row>
-    <row r="96" spans="6:14">
-      <c r="F96" s="77"/>
-      <c r="G96" s="79">
-        <v>350</v>
-      </c>
-      <c r="H96" s="81">
-        <v>821551.86522268457</v>
-      </c>
-      <c r="I96" s="81">
-        <v>410775.93261134205</v>
+        <v>-400974.5371879139</v>
+      </c>
+      <c r="O95" s="81">
+        <v>-735119.98484450858</v>
+      </c>
+      <c r="P95" s="81">
+        <v>-1069265.4325011037</v>
+      </c>
+    </row>
+    <row r="96" spans="4:16">
+      <c r="D96" s="81">
+        <v>550</v>
+      </c>
+      <c r="E96" s="152">
+        <v>894689.5959462343</v>
+      </c>
+      <c r="H96" s="77"/>
+      <c r="I96" s="79">
+        <v>400</v>
       </c>
       <c r="J96" s="81">
+        <v>955163.26238462282</v>
+      </c>
+      <c r="K96" s="81">
+        <v>636775.50825641514</v>
+      </c>
+      <c r="L96" s="81">
+        <v>318387.75412820745</v>
+      </c>
+      <c r="M96" s="81">
         <v>0</v>
       </c>
-      <c r="K96" s="81">
-        <v>-410775.93261134205</v>
-      </c>
-      <c r="L96" s="81">
-        <v>-821551.86522268457</v>
-      </c>
-      <c r="M96" s="81">
-        <v>-1232327.7978340266</v>
-      </c>
       <c r="N96" s="81">
-        <v>-1643103.7304453691</v>
-      </c>
-    </row>
-    <row r="97" spans="6:14">
-      <c r="F97" s="77"/>
-      <c r="G97" s="79">
-        <v>360</v>
-      </c>
-      <c r="H97" s="81">
-        <v>856415.12424477958</v>
-      </c>
-      <c r="I97" s="81">
-        <v>467135.52231533453</v>
+        <v>-318387.75412820745</v>
+      </c>
+      <c r="O96" s="81">
+        <v>-636775.50825641491</v>
+      </c>
+      <c r="P96" s="81">
+        <v>-955163.26238462236</v>
+      </c>
+    </row>
+    <row r="97" spans="4:16">
+      <c r="D97" s="79">
+        <v>560</v>
+      </c>
+      <c r="E97" s="152">
+        <v>879423.57177400333</v>
+      </c>
+      <c r="H97" s="77"/>
+      <c r="I97" s="79">
+        <v>410</v>
       </c>
       <c r="J97" s="81">
-        <v>77855.920385889243</v>
+        <v>971952.85243747453</v>
       </c>
       <c r="K97" s="81">
-        <v>-311423.68154355604</v>
+        <v>668217.58605076349</v>
       </c>
       <c r="L97" s="81">
-        <v>-700703.28347300133</v>
+        <v>364482.31966405269</v>
       </c>
       <c r="M97" s="81">
-        <v>-1089982.8854024466</v>
+        <v>60747.053277342115</v>
       </c>
       <c r="N97" s="81">
-        <v>-1479262.4873318919</v>
-      </c>
-    </row>
-    <row r="98" spans="6:14">
-      <c r="F98" s="77"/>
-      <c r="G98" s="79">
-        <v>370</v>
-      </c>
-      <c r="H98" s="81">
-        <v>886684.61116254725</v>
-      </c>
-      <c r="I98" s="81">
-        <v>517232.68984481925</v>
+        <v>-242988.21310936892</v>
+      </c>
+      <c r="O97" s="81">
+        <v>-546723.4794960795</v>
+      </c>
+      <c r="P97" s="81">
+        <v>-850458.74588279054</v>
+      </c>
+    </row>
+    <row r="98" spans="4:16">
+      <c r="D98" s="81">
+        <v>570</v>
+      </c>
+      <c r="E98" s="152">
+        <v>863518.53220226837</v>
+      </c>
+      <c r="H98" s="77"/>
+      <c r="I98" s="79">
+        <v>420</v>
       </c>
       <c r="J98" s="81">
-        <v>147780.76852709148</v>
+        <v>986293.31587235699</v>
       </c>
       <c r="K98" s="81">
-        <v>-221671.15279063676</v>
+        <v>696207.04649813427</v>
       </c>
       <c r="L98" s="81">
-        <v>-591123.07410836453</v>
+        <v>406120.77712391177</v>
       </c>
       <c r="M98" s="81">
-        <v>-960574.9954260923</v>
+        <v>116034.50774968928</v>
       </c>
       <c r="N98" s="81">
-        <v>-1330026.9167438205</v>
-      </c>
-    </row>
-    <row r="99" spans="6:14">
-      <c r="F99" s="77"/>
-      <c r="G99" s="79">
-        <v>380</v>
-      </c>
-      <c r="H99" s="81">
-        <v>912920.72098907013</v>
-      </c>
-      <c r="I99" s="81">
-        <v>561797.36676250491</v>
+        <v>-174051.76162453368</v>
+      </c>
+      <c r="O98" s="81">
+        <v>-464138.03099875618</v>
+      </c>
+      <c r="P98" s="81">
+        <v>-754224.30037297867</v>
+      </c>
+    </row>
+    <row r="99" spans="4:16">
+      <c r="D99" s="79">
+        <v>580</v>
+      </c>
+      <c r="E99" s="152">
+        <v>847073.11882097961</v>
+      </c>
+      <c r="H99" s="77"/>
+      <c r="I99" s="79">
+        <v>430</v>
       </c>
       <c r="J99" s="81">
-        <v>210674.01253593946</v>
+        <v>998461.92082203622</v>
       </c>
       <c r="K99" s="81">
-        <v>-140449.341690626</v>
+        <v>721111.38726035948</v>
       </c>
       <c r="L99" s="81">
-        <v>-491572.69591719145</v>
+        <v>443760.85369868297</v>
       </c>
       <c r="M99" s="81">
-        <v>-842696.05014375644</v>
+        <v>166410.32013700623</v>
       </c>
       <c r="N99" s="81">
-        <v>-1193819.4043703219</v>
-      </c>
-    </row>
-    <row r="100" spans="6:14">
-      <c r="F100" s="77"/>
-      <c r="G100" s="79">
-        <v>390</v>
-      </c>
-      <c r="H100" s="81">
-        <v>935607.253438466</v>
-      </c>
-      <c r="I100" s="81">
-        <v>601461.80578187108</v>
+        <v>-110940.21342467051</v>
+      </c>
+      <c r="O99" s="81">
+        <v>-388290.74698634725</v>
+      </c>
+      <c r="P99" s="81">
+        <v>-665641.28054802399</v>
+      </c>
+    </row>
+    <row r="100" spans="4:16">
+      <c r="D100" s="81">
+        <v>590</v>
+      </c>
+      <c r="E100" s="152">
+        <v>830177.87154810841</v>
+      </c>
+      <c r="H100" s="77"/>
+      <c r="I100" s="79">
+        <v>440</v>
       </c>
       <c r="J100" s="81">
-        <v>267316.35812527593</v>
+        <v>1008701.5979665397</v>
       </c>
       <c r="K100" s="81">
-        <v>-66829.08953131875</v>
+        <v>743253.80902797659</v>
       </c>
       <c r="L100" s="81">
-        <v>-400974.5371879139</v>
+        <v>477806.02008941351</v>
       </c>
       <c r="M100" s="81">
-        <v>-735119.98484450858</v>
+        <v>212358.23115085065</v>
       </c>
       <c r="N100" s="81">
-        <v>-1069265.4325011037</v>
-      </c>
-    </row>
-    <row r="101" spans="6:14">
-      <c r="F101" s="77"/>
-      <c r="G101" s="79">
-        <v>400</v>
-      </c>
-      <c r="H101" s="81">
-        <v>955163.26238462282</v>
-      </c>
-      <c r="I101" s="81">
-        <v>636775.50825641514</v>
+        <v>-53089.557787712663</v>
+      </c>
+      <c r="O100" s="81">
+        <v>-318537.34672627551</v>
+      </c>
+      <c r="P100" s="81">
+        <v>-583985.13566483883</v>
+      </c>
+    </row>
+    <row r="101" spans="4:16">
+      <c r="D101" s="79">
+        <v>600</v>
+      </c>
+      <c r="E101" s="152">
+        <v>812915.78425022727</v>
+      </c>
+      <c r="H101" s="77"/>
+      <c r="I101" s="79">
+        <v>450</v>
       </c>
       <c r="J101" s="81">
-        <v>318387.75412820745</v>
+        <v>1017225.7233983984</v>
       </c>
       <c r="K101" s="81">
+        <v>762919.29254879872</v>
+      </c>
+      <c r="L101" s="81">
+        <v>508612.86169919907</v>
+      </c>
+      <c r="M101" s="81">
+        <v>254306.43084959942</v>
+      </c>
+      <c r="N101" s="81">
         <v>0</v>
       </c>
-      <c r="L101" s="81">
-        <v>-318387.75412820745</v>
-      </c>
-      <c r="M101" s="81">
-        <v>-636775.50825641491</v>
-      </c>
-      <c r="N101" s="81">
-        <v>-955163.26238462236</v>
-      </c>
-    </row>
-    <row r="102" spans="6:14">
-      <c r="F102" s="77"/>
-      <c r="G102" s="79">
-        <v>410</v>
-      </c>
-      <c r="H102" s="81">
-        <v>971952.85243747453</v>
-      </c>
-      <c r="I102" s="81">
-        <v>668217.58605076349</v>
+      <c r="O101" s="81">
+        <v>-254306.43084959965</v>
+      </c>
+      <c r="P101" s="81">
+        <v>-508612.8616991993</v>
+      </c>
+    </row>
+    <row r="102" spans="4:16">
+      <c r="D102" s="81">
+        <v>700</v>
+      </c>
+      <c r="E102" s="152">
+        <v>633932.16031556111</v>
+      </c>
+      <c r="H102" s="77"/>
+      <c r="I102" s="79">
+        <v>460</v>
       </c>
       <c r="J102" s="81">
-        <v>364482.31966405269</v>
+        <v>1024222.1565401531</v>
       </c>
       <c r="K102" s="81">
-        <v>60747.053277342115</v>
+        <v>780359.73831630708</v>
       </c>
       <c r="L102" s="81">
-        <v>-242988.21310936892</v>
+        <v>536497.3200924613</v>
       </c>
       <c r="M102" s="81">
-        <v>-546723.4794960795</v>
+        <v>292634.9018686153</v>
       </c>
       <c r="N102" s="81">
-        <v>-850458.74588279054</v>
-      </c>
-    </row>
-    <row r="103" spans="6:14">
-      <c r="F103" s="77"/>
-      <c r="G103" s="79">
-        <v>420</v>
-      </c>
-      <c r="H103" s="81">
-        <v>986293.31587235699</v>
-      </c>
-      <c r="I103" s="81">
-        <v>696207.04649813427</v>
+        <v>48772.483644769527</v>
+      </c>
+      <c r="O102" s="81">
+        <v>-195089.93457907671</v>
+      </c>
+      <c r="P102" s="81">
+        <v>-438952.35280292248</v>
+      </c>
+    </row>
+    <row r="103" spans="4:16">
+      <c r="D103" s="79">
+        <v>800</v>
+      </c>
+      <c r="E103" s="152">
+        <v>469943.57838908606</v>
+      </c>
+      <c r="H103" s="77"/>
+      <c r="I103" s="79">
+        <v>470</v>
       </c>
       <c r="J103" s="81">
-        <v>406120.77712391177</v>
+        <v>1029856.6614397548</v>
       </c>
       <c r="K103" s="81">
-        <v>116034.50774968928</v>
+        <v>795798.32929435605</v>
       </c>
       <c r="L103" s="81">
-        <v>-174051.76162453368</v>
+        <v>561739.9971489571</v>
       </c>
       <c r="M103" s="81">
-        <v>-464138.03099875618</v>
+        <v>327681.66500355839</v>
       </c>
       <c r="N103" s="81">
-        <v>-754224.30037297867</v>
-      </c>
-    </row>
-    <row r="104" spans="6:14">
-      <c r="F104" s="77"/>
-      <c r="G104" s="79">
-        <v>430</v>
-      </c>
-      <c r="H104" s="81">
-        <v>998461.92082203622</v>
-      </c>
-      <c r="I104" s="81">
-        <v>721111.38726035948</v>
+        <v>93623.332858159672</v>
+      </c>
+      <c r="O103" s="81">
+        <v>-140434.99928723928</v>
+      </c>
+      <c r="P103" s="81">
+        <v>-374493.33143263776</v>
+      </c>
+    </row>
+    <row r="104" spans="4:16">
+      <c r="D104" s="81">
+        <v>900</v>
+      </c>
+      <c r="E104" s="152">
+        <v>336859.76837860217</v>
+      </c>
+      <c r="H104" s="77"/>
+      <c r="I104" s="79">
+        <v>480</v>
       </c>
       <c r="J104" s="81">
-        <v>443760.85369868297</v>
+        <v>1034275.8155834542</v>
       </c>
       <c r="K104" s="81">
-        <v>166410.32013700623</v>
+        <v>809433.24697835557</v>
       </c>
       <c r="L104" s="81">
-        <v>-110940.21342467051</v>
+        <v>584590.67837325693</v>
       </c>
       <c r="M104" s="81">
-        <v>-388290.74698634725</v>
+        <v>359748.10976815806</v>
       </c>
       <c r="N104" s="81">
-        <v>-665641.28054802399</v>
-      </c>
-    </row>
-    <row r="105" spans="6:14">
-      <c r="F105" s="77"/>
-      <c r="G105" s="79">
-        <v>440</v>
-      </c>
-      <c r="H105" s="81">
-        <v>1008701.5979665397</v>
-      </c>
-      <c r="I105" s="81">
-        <v>743253.80902797659</v>
+        <v>134905.54116305942</v>
+      </c>
+      <c r="O104" s="81">
+        <v>-89937.027442039456</v>
+      </c>
+      <c r="P104" s="81">
+        <v>-314779.59604713786</v>
+      </c>
+    </row>
+    <row r="105" spans="4:16">
+      <c r="H105" s="77"/>
+      <c r="I105" s="79">
+        <v>490</v>
       </c>
       <c r="J105" s="81">
-        <v>477806.02008941351</v>
+        <v>1037609.4911199291</v>
       </c>
       <c r="K105" s="81">
-        <v>212358.23115085065</v>
+        <v>821440.84713661065</v>
       </c>
       <c r="L105" s="81">
-        <v>-53089.557787712663</v>
+        <v>605272.20315329218</v>
       </c>
       <c r="M105" s="81">
-        <v>-318537.34672627551</v>
+        <v>389103.55916997371</v>
       </c>
       <c r="N105" s="81">
-        <v>-583985.13566483883</v>
-      </c>
-    </row>
-    <row r="106" spans="6:14">
-      <c r="F106" s="77"/>
-      <c r="G106" s="79">
-        <v>450</v>
-      </c>
-      <c r="H106" s="81">
-        <v>1017225.7233983984</v>
-      </c>
-      <c r="I106" s="81">
-        <v>762919.29254879872</v>
+        <v>172934.91518665501</v>
+      </c>
+      <c r="O105" s="81">
+        <v>-43233.728796663694</v>
+      </c>
+      <c r="P105" s="81">
+        <v>-259402.37277998216</v>
+      </c>
+    </row>
+    <row r="106" spans="4:16">
+      <c r="H106" s="77"/>
+      <c r="I106" s="79">
+        <v>500</v>
       </c>
       <c r="J106" s="81">
-        <v>508612.86169919907</v>
+        <v>1039972.9779989794</v>
       </c>
       <c r="K106" s="81">
-        <v>254306.43084959942</v>
+        <v>831978.3823991837</v>
       </c>
       <c r="L106" s="81">
+        <v>623983.78679938777</v>
+      </c>
+      <c r="M106" s="81">
+        <v>415989.19119959185</v>
+      </c>
+      <c r="N106" s="81">
+        <v>207994.59559979592</v>
+      </c>
+      <c r="O106" s="81">
         <v>0</v>
       </c>
-      <c r="M106" s="81">
-        <v>-254306.43084959965</v>
-      </c>
-      <c r="N106" s="81">
-        <v>-508612.8616991993</v>
-      </c>
-    </row>
-    <row r="107" spans="6:14">
-      <c r="F107" s="77"/>
-      <c r="G107" s="79">
-        <v>460</v>
-      </c>
-      <c r="H107" s="81">
-        <v>1024222.1565401531</v>
-      </c>
-      <c r="I107" s="81">
-        <v>780359.73831630708</v>
+      <c r="P106" s="81">
+        <v>-207994.59559979569</v>
+      </c>
+    </row>
+    <row r="107" spans="4:16">
+      <c r="H107" s="77"/>
+      <c r="I107" s="79">
+        <v>510</v>
       </c>
       <c r="J107" s="81">
-        <v>536497.3200924613</v>
+        <v>1041468.8061629091</v>
       </c>
       <c r="K107" s="81">
-        <v>292634.9018686153</v>
+        <v>841186.34343927284</v>
       </c>
       <c r="L107" s="81">
-        <v>48772.483644769527</v>
+        <v>640903.8807156363</v>
       </c>
       <c r="M107" s="81">
-        <v>-195089.93457907671</v>
+        <v>440621.417992</v>
       </c>
       <c r="N107" s="81">
-        <v>-438952.35280292248</v>
-      </c>
-    </row>
-    <row r="108" spans="6:14">
-      <c r="F108" s="77"/>
-      <c r="G108" s="79">
-        <v>470</v>
-      </c>
-      <c r="H108" s="81">
-        <v>1029856.6614397548</v>
-      </c>
-      <c r="I108" s="81">
-        <v>795798.32929435605</v>
+        <v>240338.9552683637</v>
+      </c>
+      <c r="O107" s="81">
+        <v>40056.4925447274</v>
+      </c>
+      <c r="P107" s="81">
+        <v>-160225.97017890913</v>
+      </c>
+    </row>
+    <row r="108" spans="4:16">
+      <c r="H108" s="77"/>
+      <c r="I108" s="79">
+        <v>520</v>
       </c>
       <c r="J108" s="81">
-        <v>561739.9971489571</v>
+        <v>1042188.3139489595</v>
       </c>
       <c r="K108" s="81">
-        <v>327681.66500355839</v>
+        <v>849190.47803248558</v>
       </c>
       <c r="L108" s="81">
-        <v>93623.332858159672</v>
+        <v>656192.64211601159</v>
       </c>
       <c r="M108" s="81">
-        <v>-140434.99928723928</v>
+        <v>463194.80619953759</v>
       </c>
       <c r="N108" s="81">
-        <v>-374493.33143263776</v>
-      </c>
-    </row>
-    <row r="109" spans="6:14">
-      <c r="F109" s="77"/>
-      <c r="G109" s="79">
-        <v>480</v>
-      </c>
-      <c r="H109" s="81">
-        <v>1034275.8155834542</v>
-      </c>
-      <c r="I109" s="81">
-        <v>809433.24697835557</v>
+        <v>270196.97028306359</v>
+      </c>
+      <c r="O108" s="81">
+        <v>77199.134366589598</v>
+      </c>
+      <c r="P108" s="81">
+        <v>-115798.70154988416</v>
+      </c>
+    </row>
+    <row r="109" spans="4:16">
+      <c r="H109" s="77"/>
+      <c r="I109" s="79">
+        <v>530</v>
       </c>
       <c r="J109" s="81">
-        <v>584590.67837325693</v>
+        <v>1042213.0017719698</v>
       </c>
       <c r="K109" s="81">
-        <v>359748.10976815806</v>
+        <v>856103.53716983227</v>
       </c>
       <c r="L109" s="81">
-        <v>134905.54116305942</v>
+        <v>669994.07256769482</v>
       </c>
       <c r="M109" s="81">
-        <v>-89937.027442039456</v>
+        <v>483884.60796555737</v>
       </c>
       <c r="N109" s="81">
-        <v>-314779.59604713786</v>
-      </c>
-    </row>
-    <row r="110" spans="6:14">
-      <c r="F110" s="77"/>
-      <c r="G110" s="79">
-        <v>490</v>
-      </c>
-      <c r="H110" s="81">
-        <v>1037609.4911199291</v>
-      </c>
-      <c r="I110" s="81">
-        <v>821440.84713661065</v>
+        <v>297775.14336341992</v>
+      </c>
+      <c r="O109" s="81">
+        <v>111665.67876128247</v>
+      </c>
+      <c r="P109" s="81">
+        <v>-74443.78584085498</v>
+      </c>
+    </row>
+    <row r="110" spans="4:16">
+      <c r="H110" s="77"/>
+      <c r="I110" s="79">
+        <v>540</v>
       </c>
       <c r="J110" s="81">
-        <v>605272.20315329218</v>
+        <v>1041615.7035724644</v>
       </c>
       <c r="K110" s="81">
-        <v>389103.55916997371</v>
+        <v>862026.78916341881</v>
       </c>
       <c r="L110" s="81">
-        <v>172934.91518665501</v>
+        <v>682437.87475437322</v>
       </c>
       <c r="M110" s="81">
-        <v>-43233.728796663694</v>
+        <v>502848.96034532762</v>
       </c>
       <c r="N110" s="81">
-        <v>-259402.37277998216</v>
-      </c>
-    </row>
-    <row r="111" spans="6:14">
-      <c r="F111" s="77"/>
-      <c r="G111" s="79">
-        <v>500</v>
-      </c>
-      <c r="H111" s="81">
-        <v>1039972.9779989794</v>
-      </c>
-      <c r="I111" s="81">
-        <v>831978.3823991837</v>
+        <v>323260.04593628203</v>
+      </c>
+      <c r="O110" s="81">
+        <v>143671.13152723666</v>
+      </c>
+      <c r="P110" s="81">
+        <v>-35917.782881808933</v>
+      </c>
+    </row>
+    <row r="111" spans="4:16">
+      <c r="H111" s="77"/>
+      <c r="I111" s="79">
+        <v>550</v>
       </c>
       <c r="J111" s="81">
-        <v>623983.78679938777</v>
+        <v>1040461.6031350964</v>
       </c>
       <c r="K111" s="81">
-        <v>415989.19119959185</v>
+        <v>867051.33594591368</v>
       </c>
       <c r="L111" s="81">
-        <v>207994.59559979592</v>
+        <v>693641.06875673099</v>
       </c>
       <c r="M111" s="81">
+        <v>520230.80156754819</v>
+      </c>
+      <c r="N111" s="81">
+        <v>346820.53437836538</v>
+      </c>
+      <c r="O111" s="81">
+        <v>173410.26718918281</v>
+      </c>
+      <c r="P111" s="81">
         <v>0</v>
       </c>
-      <c r="N111" s="81">
-        <v>-207994.59559979569</v>
-      </c>
-    </row>
-    <row r="112" spans="6:14">
-      <c r="F112" s="77"/>
-      <c r="G112" s="79">
-        <v>510</v>
-      </c>
-      <c r="H112" s="81">
-        <v>1041468.8061629091</v>
-      </c>
-      <c r="I112" s="81">
-        <v>841186.34343927284</v>
+    </row>
+    <row r="112" spans="4:16">
+      <c r="H112" s="77"/>
+      <c r="I112" s="79">
+        <v>560</v>
       </c>
       <c r="J112" s="81">
-        <v>640903.8807156363</v>
+        <v>1038809.1179690239</v>
       </c>
       <c r="K112" s="81">
-        <v>440621.417992</v>
+        <v>871259.26023208455</v>
       </c>
       <c r="L112" s="81">
-        <v>240338.9552683637</v>
+        <v>703709.4024951451</v>
       </c>
       <c r="M112" s="81">
-        <v>40056.4925447274</v>
+        <v>536159.544758206</v>
       </c>
       <c r="N112" s="81">
-        <v>-160225.97017890913</v>
-      </c>
-    </row>
-    <row r="113" spans="6:14">
-      <c r="F113" s="77"/>
-      <c r="G113" s="79">
-        <v>520</v>
-      </c>
-      <c r="H113" s="81">
-        <v>1042188.3139489595</v>
-      </c>
-      <c r="I113" s="81">
-        <v>849190.47803248558</v>
+        <v>368609.68702126667</v>
+      </c>
+      <c r="O112" s="81">
+        <v>201059.82928432734</v>
+      </c>
+      <c r="P112" s="81">
+        <v>33509.971547388006</v>
+      </c>
+    </row>
+    <row r="113" spans="8:16">
+      <c r="H113" s="77"/>
+      <c r="I113" s="79">
+        <v>570</v>
       </c>
       <c r="J113" s="81">
-        <v>656192.64211601159</v>
+        <v>1036710.669808225</v>
       </c>
       <c r="K113" s="81">
-        <v>463194.80619953759</v>
+        <v>874724.6276506898</v>
       </c>
       <c r="L113" s="81">
-        <v>270196.97028306359</v>
+        <v>712738.58549315459</v>
       </c>
       <c r="M113" s="81">
-        <v>77199.134366589598</v>
+        <v>550752.54333561938</v>
       </c>
       <c r="N113" s="81">
-        <v>-115798.70154988416</v>
-      </c>
-    </row>
-    <row r="114" spans="6:14">
-      <c r="F114" s="77"/>
-      <c r="G114" s="80">
-        <v>530</v>
-      </c>
-      <c r="H114" s="81">
-        <v>1042213.0017719698</v>
-      </c>
-      <c r="I114" s="81">
-        <v>856103.53716983227</v>
+        <v>388766.50117808441</v>
+      </c>
+      <c r="O113" s="81">
+        <v>226780.4590205492</v>
+      </c>
+      <c r="P113" s="81">
+        <v>64794.41686301399</v>
+      </c>
+    </row>
+    <row r="114" spans="8:16">
+      <c r="H114" s="77"/>
+      <c r="I114" s="79">
+        <v>580</v>
       </c>
       <c r="J114" s="81">
-        <v>669994.07256769482</v>
+        <v>1034213.3577876764</v>
       </c>
       <c r="K114" s="81">
-        <v>483884.60796555737</v>
+        <v>877514.36418348295</v>
       </c>
       <c r="L114" s="81">
-        <v>297775.14336341992</v>
+        <v>720815.37057928951</v>
       </c>
       <c r="M114" s="81">
-        <v>111665.67876128247</v>
+        <v>564116.37697509606</v>
       </c>
       <c r="N114" s="81">
-        <v>-74443.78584085498</v>
-      </c>
-    </row>
-    <row r="115" spans="6:14">
-      <c r="F115" s="77"/>
-      <c r="G115" s="79">
-        <v>540</v>
-      </c>
-      <c r="H115" s="81">
-        <v>1041615.7035724644</v>
-      </c>
-      <c r="I115" s="81">
-        <v>862026.78916341881</v>
+        <v>407417.38337090285</v>
+      </c>
+      <c r="O114" s="81">
+        <v>250718.38976670941</v>
+      </c>
+      <c r="P114" s="81">
+        <v>94019.396162515972</v>
+      </c>
+    </row>
+    <row r="115" spans="8:16">
+      <c r="H115" s="77"/>
+      <c r="I115" s="79">
+        <v>590</v>
       </c>
       <c r="J115" s="81">
-        <v>682437.87475437322</v>
+        <v>1031359.5478624469</v>
       </c>
       <c r="K115" s="81">
-        <v>502848.96034532762</v>
+        <v>879689.02611796942</v>
       </c>
       <c r="L115" s="81">
-        <v>323260.04593628203</v>
+        <v>728018.50437349197</v>
       </c>
       <c r="M115" s="81">
-        <v>143671.13152723666</v>
+        <v>576347.98262901441</v>
       </c>
       <c r="N115" s="81">
-        <v>-35917.782881808933</v>
-      </c>
-    </row>
-    <row r="116" spans="6:14">
-      <c r="F116" s="77"/>
-      <c r="G116" s="79">
-        <v>550</v>
-      </c>
-      <c r="H116" s="81">
-        <v>1040461.6031350964</v>
-      </c>
-      <c r="I116" s="81">
-        <v>867051.33594591368</v>
+        <v>424677.46088453708</v>
+      </c>
+      <c r="O115" s="81">
+        <v>273006.93914005952</v>
+      </c>
+      <c r="P115" s="81">
+        <v>121336.41739558196</v>
+      </c>
+    </row>
+    <row r="116" spans="8:16">
+      <c r="H116" s="77"/>
+      <c r="I116" s="79">
+        <v>600</v>
       </c>
       <c r="J116" s="81">
-        <v>693641.06875673099</v>
+        <v>1028187.3899667513</v>
       </c>
       <c r="K116" s="81">
-        <v>520230.80156754819</v>
+        <v>881303.47711435833</v>
       </c>
       <c r="L116" s="81">
-        <v>346820.53437836538</v>
+        <v>734419.56426196522</v>
       </c>
       <c r="M116" s="81">
-        <v>173410.26718918281</v>
+        <v>587535.65140957222</v>
       </c>
       <c r="N116" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="6:14">
-      <c r="F117" s="77"/>
-      <c r="G117" s="79">
-        <v>560</v>
-      </c>
-      <c r="H117" s="81">
-        <v>1038809.1179690239</v>
-      </c>
+        <v>440651.73855717899</v>
+      </c>
+      <c r="O116" s="81">
+        <v>293767.825704786</v>
+      </c>
+      <c r="P116" s="81">
+        <v>146883.912852393</v>
+      </c>
+    </row>
+    <row r="117" spans="8:16">
+      <c r="H117" s="77"/>
       <c r="I117" s="81">
-        <v>871259.26023208455</v>
+        <v>700</v>
       </c>
       <c r="J117" s="81">
-        <v>703709.4024951451</v>
+        <v>985104.42081539321</v>
       </c>
       <c r="K117" s="81">
-        <v>536159.544758206</v>
+        <v>875648.37405812729</v>
       </c>
       <c r="L117" s="81">
-        <v>368609.68702126667</v>
+        <v>766192.32730086136</v>
       </c>
       <c r="M117" s="81">
-        <v>201059.82928432734</v>
+        <v>656736.28054359555</v>
       </c>
       <c r="N117" s="81">
-        <v>33509.971547388006</v>
-      </c>
-    </row>
-    <row r="118" spans="6:14">
-      <c r="F118" s="77"/>
-      <c r="G118" s="79">
-        <v>570</v>
-      </c>
-      <c r="H118" s="81">
-        <v>1036710.669808225</v>
-      </c>
-      <c r="I118" s="81">
-        <v>874724.6276506898</v>
+        <v>547280.23378632963</v>
+      </c>
+      <c r="O117" s="81">
+        <v>437824.1870290637</v>
+      </c>
+      <c r="P117" s="81">
+        <v>328368.14027179778</v>
+      </c>
+    </row>
+    <row r="118" spans="8:16">
+      <c r="H118" s="77"/>
+      <c r="I118" s="79">
+        <v>800</v>
       </c>
       <c r="J118" s="81">
-        <v>712738.58549315459</v>
+        <v>933219.50848926988</v>
       </c>
       <c r="K118" s="81">
-        <v>550752.54333561938</v>
+        <v>848381.37135388167</v>
       </c>
       <c r="L118" s="81">
-        <v>388766.50117808441</v>
+        <v>763543.23421849345</v>
       </c>
       <c r="M118" s="81">
-        <v>226780.4590205492</v>
+        <v>678705.09708310536</v>
       </c>
       <c r="N118" s="81">
-        <v>64794.41686301399</v>
-      </c>
-    </row>
-    <row r="119" spans="6:14">
-      <c r="F119" s="77"/>
-      <c r="G119" s="79">
-        <v>580</v>
-      </c>
-      <c r="H119" s="81">
-        <v>1034213.3577876764</v>
-      </c>
+        <v>593866.95994771714</v>
+      </c>
+      <c r="O118" s="81">
+        <v>509028.82281232905</v>
+      </c>
+      <c r="P118" s="81">
+        <v>424190.68567694083</v>
+      </c>
+    </row>
+    <row r="119" spans="8:16">
+      <c r="H119" s="77"/>
       <c r="I119" s="81">
-        <v>877514.36418348295</v>
+        <v>900</v>
       </c>
       <c r="J119" s="81">
-        <v>720815.37057928951</v>
+        <v>880917.95766693447</v>
       </c>
       <c r="K119" s="81">
-        <v>564116.37697509606</v>
+        <v>813155.03784640098</v>
       </c>
       <c r="L119" s="81">
-        <v>407417.38337090285</v>
+        <v>745392.11802586762</v>
       </c>
       <c r="M119" s="81">
-        <v>250718.38976670941</v>
+        <v>677629.19820533413</v>
       </c>
       <c r="N119" s="81">
-        <v>94019.396162515972</v>
-      </c>
-    </row>
-    <row r="120" spans="6:14">
-      <c r="F120" s="77"/>
-      <c r="G120" s="79">
-        <v>590</v>
-      </c>
-      <c r="H120" s="81">
-        <v>1031359.5478624469</v>
-      </c>
+        <v>609866.27838480077</v>
+      </c>
+      <c r="O119" s="81">
+        <v>542103.35856426728</v>
+      </c>
+      <c r="P119" s="81">
+        <v>474340.43874373392</v>
+      </c>
+    </row>
+    <row r="120" spans="8:16">
+      <c r="H120" s="77"/>
       <c r="I120" s="81">
-        <v>879689.02611796942</v>
+        <v>1000</v>
       </c>
       <c r="J120" s="81">
-        <v>728018.50437349197</v>
+        <v>831338.85314930137</v>
       </c>
       <c r="K120" s="81">
-        <v>576347.98262901441</v>
+        <v>775916.262939348</v>
       </c>
       <c r="L120" s="81">
-        <v>424677.46088453708</v>
+        <v>720493.67272939463</v>
       </c>
       <c r="M120" s="81">
-        <v>273006.93914005952</v>
+        <v>665071.08251944114</v>
       </c>
       <c r="N120" s="81">
-        <v>121336.41739558196</v>
-      </c>
-    </row>
-    <row r="121" spans="6:14">
-      <c r="F121" s="77"/>
-      <c r="G121" s="79">
-        <v>600</v>
-      </c>
-      <c r="H121" s="81">
-        <v>1028187.3899667513</v>
-      </c>
-      <c r="I121" s="81">
-        <v>881303.47711435833</v>
-      </c>
-      <c r="J121" s="81">
-        <v>734419.56426196522</v>
-      </c>
-      <c r="K121" s="81">
-        <v>587535.65140957222</v>
-      </c>
-      <c r="L121" s="81">
-        <v>440651.73855717899</v>
-      </c>
-      <c r="M121" s="81">
-        <v>293767.825704786</v>
-      </c>
-      <c r="N121" s="81">
-        <v>146883.912852393</v>
-      </c>
-    </row>
-    <row r="122" spans="6:14">
-      <c r="F122" s="77"/>
-      <c r="G122" s="81">
-        <v>700</v>
-      </c>
-      <c r="H122" s="81">
-        <v>985104.42081539321</v>
-      </c>
-      <c r="I122" s="81">
-        <v>875648.37405812729</v>
-      </c>
-      <c r="J122" s="81">
-        <v>766192.32730086136</v>
-      </c>
-      <c r="K122" s="81">
-        <v>656736.28054359555</v>
-      </c>
-      <c r="L122" s="81">
-        <v>547280.23378632963</v>
-      </c>
-      <c r="M122" s="81">
-        <v>437824.1870290637</v>
-      </c>
-      <c r="N122" s="81">
-        <v>328368.14027179778</v>
-      </c>
-    </row>
-    <row r="123" spans="6:14">
-      <c r="F123" s="77"/>
-      <c r="G123" s="79">
-        <v>800</v>
-      </c>
-      <c r="H123" s="81">
-        <v>933219.50848926988</v>
-      </c>
-      <c r="I123" s="81">
-        <v>848381.37135388167</v>
-      </c>
-      <c r="J123" s="81">
-        <v>763543.23421849345</v>
-      </c>
-      <c r="K123" s="81">
-        <v>678705.09708310536</v>
-      </c>
-      <c r="L123" s="81">
-        <v>593866.95994771714</v>
-      </c>
-      <c r="M123" s="81">
-        <v>509028.82281232905</v>
-      </c>
-      <c r="N123" s="81">
-        <v>424190.68567694083</v>
-      </c>
-    </row>
-    <row r="124" spans="6:14">
-      <c r="F124" s="77"/>
-      <c r="G124" s="81">
-        <v>900</v>
-      </c>
-      <c r="H124" s="81">
-        <v>880917.95766693447</v>
-      </c>
-      <c r="I124" s="81">
-        <v>813155.03784640098</v>
-      </c>
-      <c r="J124" s="81">
-        <v>745392.11802586762</v>
-      </c>
-      <c r="K124" s="81">
-        <v>677629.19820533413</v>
-      </c>
-      <c r="L124" s="81">
-        <v>609866.27838480077</v>
-      </c>
-      <c r="M124" s="81">
-        <v>542103.35856426728</v>
-      </c>
-      <c r="N124" s="81">
-        <v>474340.43874373392</v>
-      </c>
-    </row>
-    <row r="125" spans="6:14">
-      <c r="F125" s="77"/>
-      <c r="G125" s="81">
-        <v>1000</v>
-      </c>
-      <c r="H125" s="81">
-        <v>831338.85314930137</v>
-      </c>
-      <c r="I125" s="81">
-        <v>775916.262939348</v>
-      </c>
-      <c r="J125" s="81">
-        <v>720493.67272939463</v>
-      </c>
-      <c r="K125" s="81">
-        <v>665071.08251944114</v>
-      </c>
-      <c r="L125" s="81">
         <v>609648.49230948766</v>
       </c>
-      <c r="M125" s="81">
+      <c r="O120" s="81">
         <v>554225.90209953429</v>
       </c>
-      <c r="N125" s="81">
+      <c r="P120" s="81">
         <v>498803.3118895808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="H38:H76">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>" $593.536 "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>" $593.536 "</formula>
     </cfRule>
-    <cfRule type="top10" priority="4" percent="1" rank="1"/>
+    <cfRule type="top10" priority="10" percent="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E104">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Sweater company" sheetId="1" r:id="rId1"/>
@@ -463,9 +463,6 @@
     <t>from exponential mode y=ae^(bx)</t>
   </si>
   <si>
-    <t>Proceso de modelización:</t>
-  </si>
-  <si>
     <t>La función potencial me da un beneficio máximo mayor: 1042.213 con un precio en el par de palos de 530€.</t>
   </si>
   <si>
@@ -476,9 +473,12 @@
   </si>
   <si>
     <t>1. Según los datos que tengo: precios y demanda (palos vendidos), he graficado estos datos (reales) con una gráfica de dispersión.
-2. Le añado línea tendencia (pueden ser lineal, potencial, exponencial...), en el símbolo + , la última opción.
+2. Le añado línea tendencia (pueden ser lineal, potencial, exponencial...), (en el símbolo + , la última opción).
 3. He sacado las funciones de esas gráficas (botón derecho sobre la gráfica hay opción de mostrar la función) y las he utilizado para hallar el error porcentual absoluto, para ver qué función está más cerca de la demanda real; el porcentaje más pequeño será la función más próxima a mis datos.
 4. He visto que en este caso es la función potencial; la he utilizado para hacer una hipótesis con diferentes precios para hallar el precio que me dará el beneficio mayor; poniendo en la celda fantasma el precio y en modelo de hipótesis, tabla de datos.</t>
+  </si>
+  <si>
+    <t>Proceso de modelización: saber qué precio poner para maximizar beneficios.</t>
   </si>
 </sst>
 </file>
@@ -1396,6 +1396,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,32 +1471,14 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1522,26 +1516,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1698,6 +1698,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2247,6 +2248,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -7730,11 +7732,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -8004,11 +8006,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
@@ -8147,14 +8149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
@@ -8250,19 +8252,19 @@
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=MAX(B10-B9;0)</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="30" t="s">
@@ -8270,20 +8272,20 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="120" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="35">
@@ -8330,7 +8332,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=BUSCARV(B10;E4:F9;2;VERDADERO)*B10</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="14">
         <v>500</v>
       </c>
@@ -8364,7 +8366,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="114"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="14">
         <v>1000</v>
       </c>
@@ -8408,7 +8410,7 @@
         <f t="shared" ref="C17" ca="1" si="0">_xlfn.FORMULATEXT(B17)</f>
         <v>=MIN(B9;B10)*B4+B12*B5</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="14">
         <v>1500</v>
       </c>
@@ -8441,7 +8443,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E18" s="114"/>
+      <c r="E18" s="120"/>
       <c r="F18" s="14">
         <v>2000</v>
       </c>
@@ -8485,7 +8487,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=B17-B15</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="14">
         <v>2500</v>
       </c>
@@ -8518,7 +8520,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="114"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="14">
         <v>3000</v>
       </c>
@@ -8551,7 +8553,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="114"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="14">
         <v>3500</v>
       </c>
@@ -8584,7 +8586,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="114"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="14">
         <v>4000</v>
       </c>
@@ -8617,7 +8619,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="E23" s="114"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="14">
         <v>4500</v>
       </c>
@@ -8697,19 +8699,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="128"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11">
       <c r="G2" s="34">
@@ -8736,7 +8738,7 @@
       <c r="B3" s="37">
         <v>3</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="130" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="14">
@@ -8768,7 +8770,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=100000*B3</v>
       </c>
-      <c r="F4" s="125"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="14">
         <v>2</v>
       </c>
@@ -8786,7 +8788,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="F5" s="125"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="14">
         <v>3</v>
       </c>
@@ -8810,7 +8812,7 @@
       <c r="B6" s="37">
         <v>774.95107632093936</v>
       </c>
-      <c r="F6" s="125"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="14">
         <v>4</v>
       </c>
@@ -8839,7 +8841,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=365*B6</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -8866,11 +8868,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1">
       <c r="A12" t="s">
@@ -8924,11 +8926,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1">
       <c r="A20" t="s">
@@ -8983,7 +8985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8994,11 +8996,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
@@ -9313,41 +9315,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="134.140625" style="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="134.140625" style="112" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+    </row>
+    <row r="4" spans="1:3" ht="99.75">
+      <c r="A4" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
-    </row>
-    <row r="4" spans="1:3" ht="99.75">
-      <c r="A4" s="158" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="159" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="159" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="114" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="159" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -9362,7 +9364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
@@ -9557,18 +9559,18 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:13">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="135" t="s">
+      <c r="B15" s="155"/>
+      <c r="C15" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="157"/>
+      <c r="E15" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="159"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="56" t="s">
@@ -10108,7 +10110,7 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -10557,10 +10559,10 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="30">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="132"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="76"/>
       <c r="D65" s="77" t="s">
         <v>96</v>
@@ -10609,7 +10611,7 @@
       <c r="D67" s="79">
         <v>260</v>
       </c>
-      <c r="E67" s="151">
+      <c r="E67" s="109">
         <f t="dataTable" ref="E67:E104" dt2D="0" dtr="0" r1="B71"/>
         <v>127138.80676829722</v>
       </c>
@@ -10624,7 +10626,7 @@
       <c r="D68" s="81">
         <v>270</v>
       </c>
-      <c r="E68" s="152">
+      <c r="E68" s="110">
         <v>241876.34798782971</v>
       </c>
       <c r="G68" s="79">
@@ -10636,14 +10638,14 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="130" t="s">
+      <c r="A69" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="130"/>
+      <c r="B69" s="151"/>
       <c r="D69" s="79">
         <v>280</v>
       </c>
-      <c r="E69" s="152">
+      <c r="E69" s="110">
         <v>345119.84894519672</v>
       </c>
       <c r="G69" s="79">
@@ -10663,7 +10665,7 @@
       <c r="D70" s="81">
         <v>290</v>
       </c>
-      <c r="E70" s="152">
+      <c r="E70" s="110">
         <v>437717.54039455019</v>
       </c>
       <c r="G70" s="79">
@@ -10683,7 +10685,7 @@
       <c r="D71" s="79">
         <v>300</v>
       </c>
-      <c r="E71" s="152">
+      <c r="E71" s="110">
         <v>520462.25505421963</v>
       </c>
       <c r="G71" s="79">
@@ -10705,7 +10707,7 @@
       <c r="D72" s="81">
         <v>310</v>
       </c>
-      <c r="E72" s="152">
+      <c r="E72" s="110">
         <v>594094.81361948326</v>
       </c>
       <c r="G72" s="79">
@@ -10727,7 +10729,7 @@
       <c r="D73" s="79">
         <v>320</v>
       </c>
-      <c r="E73" s="152">
+      <c r="E73" s="110">
         <v>659307.21226780722</v>
       </c>
       <c r="G73" s="81">
@@ -10743,7 +10745,7 @@
       <c r="D74" s="81">
         <v>330</v>
       </c>
-      <c r="E74" s="152">
+      <c r="E74" s="110">
         <v>716745.62296534376</v>
       </c>
       <c r="G74" s="79">
@@ -10764,7 +10766,7 @@
       <c r="D75" s="79">
         <v>340</v>
       </c>
-      <c r="E75" s="152">
+      <c r="E75" s="110">
         <v>767013.21725257114</v>
       </c>
       <c r="G75" s="81">
@@ -10785,7 +10787,7 @@
       <c r="D76" s="81">
         <v>350</v>
       </c>
-      <c r="E76" s="152">
+      <c r="E76" s="110">
         <v>810672.82359067164</v>
       </c>
       <c r="G76" s="81">
@@ -10806,7 +10808,7 @@
       <c r="D77" s="79">
         <v>360</v>
       </c>
-      <c r="E77" s="152">
+      <c r="E77" s="110">
         <v>848249.42778677586</v>
       </c>
       <c r="G77" s="2"/>
@@ -10815,7 +10817,7 @@
       <c r="D78" s="81">
         <v>370</v>
       </c>
-      <c r="E78" s="152">
+      <c r="E78" s="110">
         <v>880232.5254836448</v>
       </c>
       <c r="G78" s="2"/>
@@ -10824,7 +10826,7 @@
       <c r="D79" s="79">
         <v>380</v>
       </c>
-      <c r="E79" s="152">
+      <c r="E79" s="110">
         <v>907078.33519616933</v>
       </c>
       <c r="G79" s="2"/>
@@ -10833,7 +10835,7 @@
       <c r="D80" s="81">
         <v>390</v>
       </c>
-      <c r="E80" s="152">
+      <c r="E80" s="110">
         <v>929211.8799015421</v>
       </c>
       <c r="G80" s="2"/>
@@ -10853,7 +10855,7 @@
       <c r="D81" s="79">
         <v>400</v>
       </c>
-      <c r="E81" s="152">
+      <c r="E81" s="110">
         <v>947028.94474068307</v>
       </c>
       <c r="G81" s="2"/>
@@ -10888,7 +10890,7 @@
       <c r="D82" s="81">
         <v>410</v>
       </c>
-      <c r="E82" s="152">
+      <c r="E82" s="110">
         <v>960897.91796394461</v>
       </c>
       <c r="G82" s="2"/>
@@ -10899,7 +10901,7 @@
         <v>260</v>
       </c>
       <c r="J82" s="81">
-        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
       <c r="K82" s="81">
@@ -10925,7 +10927,7 @@
       <c r="D83" s="79">
         <v>420</v>
       </c>
-      <c r="E83" s="152">
+      <c r="E83" s="110">
         <v>971161.52185307606</v>
       </c>
       <c r="G83" s="2"/>
@@ -10959,7 +10961,7 @@
       <c r="D84" s="81">
         <v>430</v>
       </c>
-      <c r="E84" s="152">
+      <c r="E84" s="110">
         <v>978138.43997245352</v>
       </c>
       <c r="G84" s="2"/>
@@ -10993,7 +10995,7 @@
       <c r="D85" s="79">
         <v>440</v>
       </c>
-      <c r="E85" s="152">
+      <c r="E85" s="110">
         <v>982124.84674463491</v>
       </c>
       <c r="H85" s="77"/>
@@ -11023,10 +11025,10 @@
       </c>
     </row>
     <row r="86" spans="4:16">
-      <c r="D86" s="153">
+      <c r="D86" s="111">
         <v>450</v>
       </c>
-      <c r="E86" s="152">
+      <c r="E86" s="110">
         <v>983395.84500710666</v>
       </c>
       <c r="H86" s="77"/>
@@ -11059,7 +11061,7 @@
       <c r="D87" s="79">
         <v>460</v>
       </c>
-      <c r="E87" s="152">
+      <c r="E87" s="110">
         <v>982206.81688762805</v>
       </c>
       <c r="H87" s="77"/>
@@ -11092,7 +11094,7 @@
       <c r="D88" s="81">
         <v>470</v>
       </c>
-      <c r="E88" s="152">
+      <c r="E88" s="110">
         <v>978794.6930338731</v>
       </c>
       <c r="H88" s="77"/>
@@ -11125,7 +11127,7 @@
       <c r="D89" s="79">
         <v>480</v>
       </c>
-      <c r="E89" s="152">
+      <c r="E89" s="110">
         <v>973379.144948008</v>
       </c>
       <c r="G89" s="76"/>
@@ -11159,7 +11161,7 @@
       <c r="D90" s="81">
         <v>490</v>
       </c>
-      <c r="E90" s="152">
+      <c r="E90" s="110">
         <v>966163.70490771206</v>
       </c>
       <c r="H90" s="77"/>
@@ -11192,7 +11194,7 @@
       <c r="D91" s="79">
         <v>500</v>
       </c>
-      <c r="E91" s="152">
+      <c r="E91" s="110">
         <v>957336.81770087557</v>
       </c>
       <c r="H91" s="77"/>
@@ -11225,7 +11227,7 @@
       <c r="D92" s="81">
         <v>510</v>
       </c>
-      <c r="E92" s="152">
+      <c r="E92" s="110">
         <v>947072.82816114672</v>
       </c>
       <c r="H92" s="77"/>
@@ -11258,7 +11260,7 @@
       <c r="D93" s="79">
         <v>520</v>
       </c>
-      <c r="E93" s="152">
+      <c r="E93" s="110">
         <v>935532.90826476016</v>
       </c>
       <c r="H93" s="77"/>
@@ -11291,7 +11293,7 @@
       <c r="D94" s="81">
         <v>530</v>
       </c>
-      <c r="E94" s="152">
+      <c r="E94" s="110">
         <v>922865.92733498837</v>
       </c>
       <c r="H94" s="77"/>
@@ -11324,7 +11326,7 @@
       <c r="D95" s="79">
         <v>540</v>
       </c>
-      <c r="E95" s="152">
+      <c r="E95" s="110">
         <v>909209.26869839907</v>
       </c>
       <c r="H95" s="77"/>
@@ -11357,7 +11359,7 @@
       <c r="D96" s="81">
         <v>550</v>
       </c>
-      <c r="E96" s="152">
+      <c r="E96" s="110">
         <v>894689.5959462343</v>
       </c>
       <c r="H96" s="77"/>
@@ -11390,7 +11392,7 @@
       <c r="D97" s="79">
         <v>560</v>
       </c>
-      <c r="E97" s="152">
+      <c r="E97" s="110">
         <v>879423.57177400333</v>
       </c>
       <c r="H97" s="77"/>
@@ -11423,7 +11425,7 @@
       <c r="D98" s="81">
         <v>570</v>
       </c>
-      <c r="E98" s="152">
+      <c r="E98" s="110">
         <v>863518.53220226837</v>
       </c>
       <c r="H98" s="77"/>
@@ -11456,7 +11458,7 @@
       <c r="D99" s="79">
         <v>580</v>
       </c>
-      <c r="E99" s="152">
+      <c r="E99" s="110">
         <v>847073.11882097961</v>
       </c>
       <c r="H99" s="77"/>
@@ -11489,7 +11491,7 @@
       <c r="D100" s="81">
         <v>590</v>
       </c>
-      <c r="E100" s="152">
+      <c r="E100" s="110">
         <v>830177.87154810841</v>
       </c>
       <c r="H100" s="77"/>
@@ -11522,7 +11524,7 @@
       <c r="D101" s="79">
         <v>600</v>
       </c>
-      <c r="E101" s="152">
+      <c r="E101" s="110">
         <v>812915.78425022727</v>
       </c>
       <c r="H101" s="77"/>
@@ -11555,7 +11557,7 @@
       <c r="D102" s="81">
         <v>700</v>
       </c>
-      <c r="E102" s="152">
+      <c r="E102" s="110">
         <v>633932.16031556111</v>
       </c>
       <c r="H102" s="77"/>
@@ -11588,7 +11590,7 @@
       <c r="D103" s="79">
         <v>800</v>
       </c>
-      <c r="E103" s="152">
+      <c r="E103" s="110">
         <v>469943.57838908606</v>
       </c>
       <c r="H103" s="77"/>
@@ -11621,7 +11623,7 @@
       <c r="D104" s="81">
         <v>900</v>
       </c>
-      <c r="E104" s="152">
+      <c r="E104" s="110">
         <v>336859.76837860217</v>
       </c>
       <c r="H104" s="77"/>

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -1698,7 +1698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2248,7 +2247,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3044,7 +3042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3829,7 +3826,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10110,7 +10106,7 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -10901,7 +10897,7 @@
         <v>260</v>
       </c>
       <c r="J82" s="81">
-        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
         <v>144859.72842847556</v>
       </c>
       <c r="K82" s="81">

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -10106,7 +10106,7 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -10897,7 +10897,7 @@
         <v>260</v>
       </c>
       <c r="J82" s="81">
-        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
       <c r="K82" s="81">

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -383,9 +383,6 @@
 (exponencial)</t>
   </si>
   <si>
-    <t>LINEAR: y= mx+b</t>
-  </si>
-  <si>
     <t>Price (x)</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Proceso de modelización: saber qué precio poner para maximizar beneficios.</t>
+  </si>
+  <si>
+    <t>LINEAR: y= mx+b (función lineal)</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1230,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1542,6 +1542,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7335,16 +7338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>232019</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638232</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9323,29 +9326,29 @@
     <row r="1" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="137"/>
       <c r="C2" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="99.75">
       <c r="A4" s="113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9361,25 +9364,25 @@
   <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45.75" thickBot="1">
+    <row r="1" spans="1:10" ht="45">
       <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
@@ -9387,10 +9390,16 @@
         <v>96</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>115</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="141"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -9400,14 +9409,14 @@
       <c r="C2" s="53">
         <v>45</v>
       </c>
-      <c r="J2" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-    </row>
-    <row r="3" spans="1:13" ht="21.75" customHeight="1">
+      <c r="E2" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
+    </row>
+    <row r="3" spans="1:10" ht="21.75" customHeight="1">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -9417,14 +9426,17 @@
       <c r="C3" s="53">
         <v>103</v>
       </c>
-      <c r="J3" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="144"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+      <c r="E3" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="147"/>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="53">
         <v>3</v>
       </c>
@@ -9434,15 +9446,18 @@
       <c r="C4" s="53">
         <v>49</v>
       </c>
-      <c r="J4" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="147"/>
-    </row>
-    <row r="5" spans="1:13" s="84" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A5" s="83">
+      <c r="E4" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
+      <c r="J4" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="84" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A5" s="160">
         <v>4</v>
       </c>
       <c r="B5" s="83">
@@ -9451,14 +9466,8 @@
       <c r="C5" s="83">
         <v>86</v>
       </c>
-      <c r="J5" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="150"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="53">
         <v>5</v>
       </c>
@@ -9468,9 +9477,8 @@
       <c r="C6" s="53">
         <v>125</v>
       </c>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="53">
         <v>6</v>
       </c>
@@ -9481,7 +9489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:10">
       <c r="A8" s="53">
         <v>7</v>
       </c>
@@ -9492,7 +9500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:10">
       <c r="A9" s="53">
         <v>8</v>
       </c>
@@ -9503,7 +9511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:10">
       <c r="A10" s="53">
         <v>9</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:10">
       <c r="A11" s="53">
         <v>10</v>
       </c>
@@ -9525,7 +9533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:10">
       <c r="A12" s="53">
         <v>11</v>
       </c>
@@ -9535,11 +9543,8 @@
       <c r="C12" s="53">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="53">
         <v>12</v>
       </c>
@@ -9549,14 +9554,11 @@
       <c r="C13" s="53">
         <v>68</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:10">
       <c r="A15" s="154" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B15" s="155"/>
       <c r="C15" s="156" t="s">
@@ -9568,7 +9570,7 @@
       </c>
       <c r="F15" s="159"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:10">
       <c r="A16" s="56" t="s">
         <v>97</v>
       </c>
@@ -9619,28 +9621,28 @@
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="66" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="H20" s="69" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" s="69" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10029,7 +10031,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="E33" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F33" s="70">
         <f>AVERAGE(F21:F32)</f>
@@ -10046,40 +10048,40 @@
     </row>
     <row r="34" spans="1:8">
       <c r="G34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="2">
         <v>250</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G36" s="77" t="s">
         <v>96</v>
       </c>
       <c r="H36" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2">
         <v>700</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="78">
@@ -10089,14 +10091,14 @@
     </row>
     <row r="38" spans="1:8" ht="31.5" customHeight="1">
       <c r="A38" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="4">
         <f>D16*B37^D17</f>
         <v>21.891209351453181</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B38)</f>
@@ -10106,13 +10108,13 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4">
         <f>B38*100</f>
@@ -10229,16 +10231,16 @@
     </row>
     <row r="48" spans="1:8" ht="35.25" customHeight="1">
       <c r="A48" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B48" s="96" t="s">
         <v>113</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G48" s="79">
         <v>360</v>
@@ -10551,12 +10553,12 @@
         <v>1042188.3139489595</v>
       </c>
       <c r="J64" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="30">
       <c r="A65" s="152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="153"/>
       <c r="C65" s="76"/>
@@ -10564,7 +10566,7 @@
         <v>96</v>
       </c>
       <c r="E65" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="80">
         <v>530</v>
@@ -10573,7 +10575,7 @@
         <v>1042213.0017719698</v>
       </c>
       <c r="J65" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -10635,7 +10637,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="151"/>
       <c r="D69" s="79">
@@ -10653,7 +10655,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2">
         <v>250</v>
@@ -10673,7 +10675,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2">
         <v>700</v>
@@ -10693,7 +10695,7 @@
     </row>
     <row r="72" spans="1:16" ht="30">
       <c r="A72" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="103">
         <f>$F$16*EXP(F17*$B$71)</f>
@@ -10715,7 +10717,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="4">
         <f>B72*100</f>
@@ -10838,7 +10840,7 @@
       <c r="H80" s="77"/>
       <c r="I80" s="81"/>
       <c r="J80" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K80" s="77"/>
       <c r="L80" s="77"/>
@@ -10897,7 +10899,7 @@
         <v>260</v>
       </c>
       <c r="J82" s="81">
-        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
         <v>144859.72842847556</v>
       </c>
       <c r="K82" s="81">
@@ -12082,10 +12084,10 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A15:B15"/>

--- a/Excel_proyects_BI.xlsx
+++ b/Excel_proyects_BI.xlsx
@@ -1408,6 +1408,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1542,9 +1545,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3829,6 +3829,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7731,11 +7732,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -8005,11 +8006,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
@@ -8148,14 +8149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="3" spans="1:15">
       <c r="E3" t="s">
@@ -8251,19 +8252,19 @@
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=MAX(B10-B9;0)</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="30" t="s">
@@ -8271,20 +8272,20 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="121" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="35">
@@ -8331,7 +8332,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
         <v>=BUSCARV(B10;E4:F9;2;VERDADERO)*B10</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="14">
         <v>500</v>
       </c>
@@ -8365,7 +8366,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="120"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="14">
         <v>1000</v>
       </c>
@@ -8409,7 +8410,7 @@
         <f t="shared" ref="C17" ca="1" si="0">_xlfn.FORMULATEXT(B17)</f>
         <v>=MIN(B9;B10)*B4+B12*B5</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="14">
         <v>1500</v>
       </c>
@@ -8442,7 +8443,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1">
-      <c r="E18" s="120"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="14">
         <v>2000</v>
       </c>
@@ -8486,7 +8487,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=B17-B15</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="14">
         <v>2500</v>
       </c>
@@ -8519,7 +8520,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="E20" s="120"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="14">
         <v>3000</v>
       </c>
@@ -8552,7 +8553,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="E21" s="120"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="14">
         <v>3500</v>
       </c>
@@ -8585,7 +8586,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="E22" s="120"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="14">
         <v>4000</v>
       </c>
@@ -8618,7 +8619,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="E23" s="120"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="14">
         <v>4500</v>
       </c>
@@ -8698,19 +8699,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11">
       <c r="G2" s="34">
@@ -8737,7 +8738,7 @@
       <c r="B3" s="37">
         <v>3</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="131" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="14">
@@ -8769,7 +8770,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=100000*B3</v>
       </c>
-      <c r="F4" s="131"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="14">
         <v>2</v>
       </c>
@@ -8787,7 +8788,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="F5" s="131"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="14">
         <v>3</v>
       </c>
@@ -8811,7 +8812,7 @@
       <c r="B6" s="37">
         <v>774.95107632093936</v>
       </c>
-      <c r="F6" s="131"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="14">
         <v>4</v>
       </c>
@@ -8840,7 +8841,7 @@
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=365*B6</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="14">
         <v>5</v>
       </c>
@@ -8867,11 +8868,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickTop="1">
       <c r="A12" t="s">
@@ -8925,11 +8926,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1">
       <c r="A20" t="s">
@@ -8995,11 +8996,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="40" t="s">
@@ -9325,11 +9326,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="139"/>
     </row>
     <row r="4" spans="1:3" ht="99.75">
       <c r="A4" s="113" t="s">
@@ -9363,7 +9364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -9392,12 +9393,12 @@
       <c r="C1" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="53">
@@ -9409,12 +9410,12 @@
       <c r="C2" s="53">
         <v>45</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1">
       <c r="A3" s="53">
@@ -9426,12 +9427,12 @@
       <c r="C3" s="53">
         <v>103</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
       <c r="J3" t="s">
         <v>110</v>
       </c>
@@ -9446,18 +9447,18 @@
       <c r="C4" s="53">
         <v>49</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
       <c r="J4" s="55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="84" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="160">
+      <c r="A5" s="115">
         <v>4</v>
       </c>
       <c r="B5" s="83">
@@ -9557,18 +9558,18 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156" t="s">
+      <c r="B15" s="156"/>
+      <c r="C15" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="159"/>
+      <c r="F15" s="160"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="56" t="s">
@@ -10108,7 +10109,7 @@
         <v>260</v>
       </c>
       <c r="H38" s="79">
-        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37" ca="1"/>
+        <f t="dataTable" ref="H38:H76" dt2D="0" dtr="0" r1="B37"/>
         <v>144859.72842847556</v>
       </c>
     </row>
@@ -10557,10 +10558,10 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="30">
-      <c r="A65" s="152" t="s">
+      <c r="A65" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="153"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="76"/>
       <c r="D65" s="77" t="s">
         <v>96</v>
@@ -10636,10 +10637,10 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="151" t="s">
+      <c r="A69" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="151"/>
+      <c r="B69" s="152"/>
       <c r="D69" s="79">
         <v>280</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>260</v>
       </c>
       <c r="J82" s="81">
-        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37"/>
+        <f t="dataTable" ref="J82:P120" dt2D="1" dtr="1" r1="B36" r2="B37" ca="1"/>
         <v>144859.72842847556</v>
       </c>
       <c r="K82" s="81">
